--- a/results/results-excel-f64bit.xlsx
+++ b/results/results-excel-f64bit.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coder\Desktop\CS471_proj2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8BDB520C-F096-4ED6-BE89-43AA62EF59D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2CE93A-0E44-41F4-A288-0788D5364BF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="612" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="612" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tBS10" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,20 @@
     <sheet name="BS Fitness Analysis" sheetId="14" r:id="rId14"/>
     <sheet name="LS Fitness Analysis" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="43">
   <si>
     <t>Schwefelâ€™s function</t>
   </si>
@@ -158,13 +166,19 @@
   <si>
     <t>Blind Search - 30 Dimensions</t>
   </si>
+  <si>
+    <t>Avg Time (ms)</t>
+  </si>
+  <si>
+    <t>Avg. Time (ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -751,27 +765,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,12 +786,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -803,21 +802,42 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1172,10 +1192,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2902,7 +2922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4679,7 +4699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6456,7 +6476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8246,7 +8266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8261,102 +8281,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="J2" s="14" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="J2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="34"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="30" t="s">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8364,67 +8384,67 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <f>MIN('tBS10'!B1:AE1)</f>
         <v>3.4957000000000002E-2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="13">
         <f>MAX('tBS10'!B1:AE1)</f>
         <v>1.7372300000000001</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <f>MIN('tBS20'!B1:AE1)</f>
         <v>4.1375000000000002E-2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <f>MAX('tBS20'!B1:AE1)</f>
         <v>0.23072599999999999</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <f>MIN('tBS30'!B1:AE1)</f>
         <v>5.7515999999999998E-2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <f>MAX('tBS30'!B1:AE1)</f>
         <v>0.191635</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="12">
         <f>MIN('tLS10'!B1:AE1)</f>
         <v>5.9471800000000004</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="13">
         <f>MAX('tLS10'!B1:AE1)</f>
         <v>30.895600000000002</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="10">
         <f>MIN('tLS20'!B1:AE1)</f>
         <v>27.133600000000001</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="11">
         <f>MAX('tLS20'!B1:AE1)</f>
         <v>92.457400000000007</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="10">
         <f>MIN('tLS30'!B1:AE1)</f>
         <v>54.830599999999997</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="11">
         <f>MAX('tLS30'!B1:AE1)</f>
         <v>226.69</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="22">
         <v>4.7387849999999997E-3</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="22">
         <v>5.7972600000000003E-3</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="22">
         <v>6.6033840000000003E-3</v>
       </c>
     </row>
@@ -8432,67 +8452,67 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="12">
         <f>MIN('tBS10'!B2:AE2)</f>
         <v>2.1002E-2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="13">
         <f>MAX('tBS10'!B2:AE2)</f>
         <v>3.1419999999999997E-2</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="12">
         <f>MIN('tBS20'!B2:AE2)</f>
         <v>1.2043E-2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="13">
         <f>MAX('tBS20'!B2:AE2)</f>
         <v>1.9498000000000001E-2</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="12">
         <f>MIN('tBS30'!B2:AE2)</f>
         <v>2.2096000000000001E-2</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="13">
         <f>MAX('tBS30'!B2:AE2)</f>
         <v>2.5968000000000001E-2</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="12">
         <f>MIN('tLS10'!B2:AE2)</f>
         <v>5.7815999999999999E-2</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="13">
         <f>MAX('tLS10'!B2:AE2)</f>
         <v>0.203324</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="12">
         <f>MIN('tLS20'!B2:AE2)</f>
         <v>0.15340000000000001</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="13">
         <f>MAX('tLS20'!B2:AE2)</f>
         <v>0.52270099999999997</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="12">
         <f>MIN('tLS30'!B2:AE2)</f>
         <v>0.30471300000000001</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="13">
         <f>MAX('tLS30'!B2:AE2)</f>
         <v>1.04095</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="24">
         <v>24.00245</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="24">
         <v>89.028090000000006</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="24">
         <v>209.24549999999999</v>
       </c>
     </row>
@@ -8500,54 +8520,54 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="12">
         <f>MIN('tBS10'!B3:AE3)</f>
         <v>1.4517E-2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="13">
         <f>MAX('tBS10'!B3:AE3)</f>
         <v>2.3200999999999999E-2</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <f>MIN('tBS20'!B3:AE3)</f>
         <v>1.2737999999999999E-2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="13">
         <f>MAX('tBS20'!B3:AE3)</f>
         <v>2.0454E-2</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <f>MIN('tBS30'!B3:AE3)</f>
         <v>2.5486999999999999E-2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="13">
         <f>MAX('tBS30'!B3:AE3)</f>
         <v>2.7311999999999999E-2</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <f>MIN('tLS10'!B3:AE3)</f>
         <v>9.2309999999999996E-3</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="13">
         <f>MAX('tLS10'!B3:AE3)</f>
         <v>1.0852000000000001E-2</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="12">
         <f>MIN('tLS20'!B3:AE3)</f>
         <v>1.5762000000000002E-2</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="13">
         <f>MAX('tLS20'!B3:AE3)</f>
         <v>1.9407000000000001E-2</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="12">
         <f>MIN('tLS30'!B3:AE3)</f>
         <v>2.6207999999999999E-2</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="13">
         <f>MAX('tLS30'!B3:AE3)</f>
         <v>3.7377000000000001E-2</v>
       </c>
@@ -8556,54 +8576,54 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="12">
         <f>MIN('tBS10'!B4:AE4)</f>
         <v>3.0639E-2</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="13">
         <f>MAX('tBS10'!B4:AE4)</f>
         <v>4.7134000000000002E-2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <f>MIN('tBS20'!B4:AE4)</f>
         <v>2.8188999999999999E-2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="13">
         <f>MAX('tBS20'!B4:AE4)</f>
         <v>7.9672000000000007E-2</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <f>MIN('tBS30'!B4:AE4)</f>
         <v>3.78E-2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="13">
         <f>MAX('tBS30'!B4:AE4)</f>
         <v>5.8409999999999997E-2</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="12">
         <f>MIN('tLS10'!B4:AE4)</f>
         <v>2.1307E-2</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="13">
         <f>MAX('tLS10'!B4:AE4)</f>
         <v>4.1690999999999999E-2</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="12">
         <f>MIN('tLS20'!B4:AE4)</f>
         <v>4.5325999999999998E-2</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="13">
         <f>MAX('tLS20'!B4:AE4)</f>
         <v>4.7704999999999997E-2</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="12">
         <f>MIN('tLS30'!B4:AE4)</f>
         <v>7.5101000000000001E-2</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="13">
         <f>MAX('tLS30'!B4:AE4)</f>
         <v>8.3682999999999994E-2</v>
       </c>
@@ -8612,54 +8632,54 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="12">
         <f>MIN('tBS10'!B5:AE5)</f>
         <v>3.8012999999999998E-2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="13">
         <f>MAX('tBS10'!B5:AE5)</f>
         <v>5.2991999999999997E-2</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <f>MIN('tBS20'!B5:AE5)</f>
         <v>3.7472999999999999E-2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="13">
         <f>MAX('tBS20'!B5:AE5)</f>
         <v>9.8683000000000007E-2</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <f>MIN('tBS30'!B5:AE5)</f>
         <v>5.1525000000000001E-2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="13">
         <f>MAX('tBS30'!B5:AE5)</f>
         <v>6.6849000000000006E-2</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="12">
         <f>MIN('tLS10'!B5:AE5)</f>
         <v>4572.4799999999996</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="13">
         <f>MAX('tLS10'!B5:AE5)</f>
         <v>6115.94</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="12">
         <f>MIN('tLS20'!B5:AE5)</f>
         <v>17607.7</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="13">
         <f>MAX('tLS20'!B5:AE5)</f>
         <v>24396.400000000001</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="12">
         <f>MIN('tLS30'!B5:AE5)</f>
         <v>40820.400000000001</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="13">
         <f>MAX('tLS30'!B5:AE5)</f>
         <v>57527.7</v>
       </c>
@@ -8668,54 +8688,54 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <f>MIN('tBS10'!B6:AE6)</f>
         <v>2.9981000000000001E-2</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="13">
         <f>MAX('tBS10'!B6:AE6)</f>
         <v>4.6746999999999997E-2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="12">
         <f>MIN('tBS20'!B6:AE6)</f>
         <v>2.9637E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="13">
         <f>MAX('tBS20'!B6:AE6)</f>
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="12">
         <f>MIN('tBS30'!B6:AE6)</f>
         <v>3.9933999999999997E-2</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="13">
         <f>MAX('tBS30'!B6:AE6)</f>
         <v>5.9776999999999997E-2</v>
       </c>
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="12">
         <f>MIN('tLS10'!B6:AE6)</f>
         <v>2.1146999999999999E-2</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="13">
         <f>MAX('tLS10'!B6:AE6)</f>
         <v>3.1015999999999998E-2</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="12">
         <f>MIN('tLS20'!B6:AE6)</f>
         <v>4.7709000000000001E-2</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="13">
         <f>MAX('tLS20'!B6:AE6)</f>
         <v>6.2561000000000005E-2</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="12">
         <f>MIN('tLS30'!B6:AE6)</f>
         <v>8.0337000000000006E-2</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="13">
         <f>MAX('tLS30'!B6:AE6)</f>
         <v>0.109796</v>
       </c>
@@ -8724,54 +8744,54 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="12">
         <f>MIN('tBS10'!B7:AE7)</f>
         <v>7.1707999999999994E-2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="13">
         <f>MAX('tBS10'!B7:AE7)</f>
         <v>9.8656999999999995E-2</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="12">
         <f>MIN('tBS20'!B7:AE7)</f>
         <v>7.5488E-2</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="13">
         <f>MAX('tBS20'!B7:AE7)</f>
         <v>0.101809</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="12">
         <f>MIN('tBS30'!B7:AE7)</f>
         <v>0.100137</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="13">
         <f>MAX('tBS30'!B7:AE7)</f>
         <v>0.13564399999999999</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="12">
         <f>MIN('tLS10'!B7:AE7)</f>
         <v>6.9037000000000001E-2</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="13">
         <f>MAX('tLS10'!B7:AE7)</f>
         <v>338.315</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="12">
         <f>MIN('tLS20'!B7:AE7)</f>
         <v>0.57369899999999996</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="13">
         <f>MAX('tLS20'!B7:AE7)</f>
         <v>2484.65</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="12">
         <f>MIN('tLS30'!B7:AE7)</f>
         <v>2.2082799999999998</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="13">
         <f>MAX('tLS30'!B7:AE7)</f>
         <v>4803.42</v>
       </c>
@@ -8780,54 +8800,54 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="12">
         <f>MIN('tBS10'!B8:AE8)</f>
         <v>4.2930000000000003E-2</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="13">
         <f>MAX('tBS10'!B8:AE8)</f>
         <v>6.9235000000000005E-2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="12">
         <f>MIN('tBS20'!B8:AE8)</f>
         <v>4.0802999999999999E-2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="13">
         <f>MAX('tBS20'!B8:AE8)</f>
         <v>8.6226999999999998E-2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="12">
         <f>MIN('tBS30'!B8:AE8)</f>
         <v>6.6471000000000002E-2</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="13">
         <f>MAX('tBS30'!B8:AE8)</f>
         <v>8.4447999999999995E-2</v>
       </c>
       <c r="I12">
         <v>8</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="12">
         <f>MIN('tLS10'!B8:AE8)</f>
         <v>0.107561</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="13">
         <f>MAX('tLS10'!B8:AE8)</f>
         <v>4.45289</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="12">
         <f>MIN('tLS20'!B8:AE8)</f>
         <v>0.47847400000000001</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="13">
         <f>MAX('tLS20'!B8:AE8)</f>
         <v>3.9245399999999999</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="12">
         <f>MIN('tLS30'!B8:AE8)</f>
         <v>1.1200699999999999</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="13">
         <f>MAX('tLS30'!B8:AE8)</f>
         <v>9.3330699999999993</v>
       </c>
@@ -8836,54 +8856,54 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="12">
         <f>MIN('tBS10'!B9:AE9)</f>
         <v>9.1485999999999998E-2</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="13">
         <f>MAX('tBS10'!B9:AE9)</f>
         <v>0.13052800000000001</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="12">
         <f>MIN('tBS20'!B9:AE9)</f>
         <v>8.5671999999999998E-2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="13">
         <f>MAX('tBS20'!B9:AE9)</f>
         <v>0.12642100000000001</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="12">
         <f>MIN('tBS30'!B9:AE9)</f>
         <v>0.15176600000000001</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="13">
         <f>MAX('tBS30'!B9:AE9)</f>
         <v>0.22006800000000001</v>
       </c>
       <c r="I13">
         <v>9</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="12">
         <f>MIN('tLS10'!B9:AE9)</f>
         <v>0.122614</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="13">
         <f>MAX('tLS10'!B9:AE9)</f>
         <v>54.1006</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="12">
         <f>MIN('tLS20'!B9:AE9)</f>
         <v>0.31059199999999998</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="13">
         <f>MAX('tLS20'!B9:AE9)</f>
         <v>167.09899999999999</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="12">
         <f>MIN('tLS30'!B9:AE9)</f>
         <v>0.87597700000000001</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="13">
         <f>MAX('tLS30'!B9:AE9)</f>
         <v>380.476</v>
       </c>
@@ -8892,54 +8912,54 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="12">
         <f>MIN('tBS10'!B10:AE10)</f>
         <v>5.1001999999999999E-2</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="13">
         <f>MAX('tBS10'!B10:AE10)</f>
         <v>0.49846800000000002</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="12">
         <f>MIN('tBS20'!B10:AE10)</f>
         <v>6.0639999999999999E-2</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="13">
         <f>MAX('tBS20'!B10:AE10)</f>
         <v>6.7196000000000006E-2</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <f>MIN('tBS30'!B10:AE10)</f>
         <v>8.1393999999999994E-2</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="13">
         <f>MAX('tBS30'!B10:AE10)</f>
         <v>0.77273000000000003</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="12">
         <f>MIN('tLS10'!B10:AE10)</f>
         <v>0.21399299999999999</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="13">
         <f>MAX('tLS10'!B10:AE10)</f>
         <v>204.435</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="12">
         <f>MIN('tLS20'!B10:AE10)</f>
         <v>27.1112</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="13">
         <f>MAX('tLS20'!B10:AE10)</f>
         <v>2769.17</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="12">
         <f>MIN('tLS30'!B10:AE10)</f>
         <v>1.4420299999999999</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="13">
         <f>MAX('tLS30'!B10:AE10)</f>
         <v>2367.77</v>
       </c>
@@ -8948,54 +8968,54 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="12">
         <f>MIN('tBS10'!B11:AE11)</f>
         <v>8.8104000000000002E-2</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="13">
         <f>MAX('tBS10'!B11:AE11)</f>
         <v>0.113415</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="12">
         <f>MIN('tBS20'!B11:AE11)</f>
         <v>0.10646600000000001</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="13">
         <f>MAX('tBS20'!B11:AE11)</f>
         <v>0.11595800000000001</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <f>MIN('tBS30'!B11:AE11)</f>
         <v>0.119961</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="13">
         <f>MAX('tBS30'!B11:AE11)</f>
         <v>0.58184199999999997</v>
       </c>
       <c r="I15">
         <v>11</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="12">
         <f>MIN('tLS10'!B11:AE11)</f>
         <v>5.8257000000000003E-2</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="13">
         <f>MAX('tLS10'!B11:AE11)</f>
         <v>405.904</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="12">
         <f>MIN('tLS20'!B11:AE11)</f>
         <v>0.13701199999999999</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="13">
         <f>MAX('tLS20'!B11:AE11)</f>
         <v>4875.01</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="12">
         <f>MIN('tLS30'!B11:AE11)</f>
         <v>0.33866000000000002</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="13">
         <f>MAX('tLS30'!B11:AE11)</f>
         <v>7853.03</v>
       </c>
@@ -9004,54 +9024,54 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="12">
         <f>MIN('tBS10'!B12:AE12)</f>
         <v>3.8633000000000001E-2</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="13">
         <f>MAX('tBS10'!B12:AE12)</f>
         <v>4.0349999999999997E-2</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="12">
         <f>MIN('tBS20'!B12:AE12)</f>
         <v>4.4854999999999999E-2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="13">
         <f>MAX('tBS20'!B12:AE12)</f>
         <v>4.7988999999999997E-2</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <f>MIN('tBS30'!B12:AE12)</f>
         <v>4.5487E-2</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="13">
         <f>MAX('tBS30'!B12:AE12)</f>
         <v>6.3946000000000003E-2</v>
       </c>
       <c r="I16">
         <v>12</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="12">
         <f>MIN('tLS10'!B12:AE12)</f>
         <v>2.2713000000000001E-2</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="13">
         <f>MAX('tLS10'!B12:AE12)</f>
         <v>2.9779E-2</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="12">
         <f>MIN('tLS20'!B12:AE12)</f>
         <v>5.1969000000000001E-2</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="13">
         <f>MAX('tLS20'!B12:AE12)</f>
         <v>8.0230999999999997E-2</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="12">
         <f>MIN('tLS30'!B12:AE12)</f>
         <v>8.7978000000000001E-2</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="13">
         <f>MAX('tLS30'!B12:AE12)</f>
         <v>0.118974</v>
       </c>
@@ -9060,54 +9080,54 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="12">
         <f>MIN('tBS10'!B13:AE13)</f>
         <v>7.3488999999999999E-2</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="13">
         <f>MAX('tBS10'!B13:AE13)</f>
         <v>0.15127399999999999</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="12">
         <f>MIN('tBS20'!B13:AE13)</f>
         <v>8.6744000000000002E-2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="13">
         <f>MAX('tBS20'!B13:AE13)</f>
         <v>9.3830999999999998E-2</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <f>MIN('tBS30'!B13:AE13)</f>
         <v>9.0666999999999998E-2</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="13">
         <f>MAX('tBS30'!B13:AE13)</f>
         <v>0.124638</v>
       </c>
       <c r="I17">
         <v>13</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="12">
         <f>MIN('tLS10'!B13:AE13)</f>
         <v>4.5143999999999997E-2</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="13">
         <f>MAX('tLS10'!B13:AE13)</f>
         <v>6.5132999999999996E-2</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="12">
         <f>MIN('tLS20'!B13:AE13)</f>
         <v>0.10828699999999999</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="13">
         <f>MAX('tLS20'!B13:AE13)</f>
         <v>0.14780599999999999</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="12">
         <f>MIN('tLS30'!B13:AE13)</f>
         <v>0.18399199999999999</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="13">
         <f>MAX('tLS30'!B13:AE13)</f>
         <v>0.27079199999999998</v>
       </c>
@@ -9116,54 +9136,54 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="12">
         <f>MIN('tBS10'!B14:AE14)</f>
         <v>5.6973000000000003E-2</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="13">
         <f>MAX('tBS10'!B14:AE14)</f>
         <v>6.0020999999999998E-2</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="12">
         <f>MIN('tBS20'!B14:AE14)</f>
         <v>6.5101000000000006E-2</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="13">
         <f>MAX('tBS20'!B14:AE14)</f>
         <v>9.4991000000000006E-2</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="12">
         <f>MIN('tBS30'!B14:AE14)</f>
         <v>7.0369000000000001E-2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="13">
         <f>MAX('tBS30'!B14:AE14)</f>
         <v>9.8560999999999996E-2</v>
       </c>
       <c r="I18">
         <v>14</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="12">
         <f>MIN('tLS10'!B14:AE14)</f>
         <v>3.7220999999999997E-2</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="13">
         <f>MAX('tLS10'!B14:AE14)</f>
         <v>4403.1899999999996</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="12">
         <f>MIN('tLS20'!B14:AE14)</f>
         <v>8.727E-2</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="13">
         <f>MAX('tLS20'!B14:AE14)</f>
         <v>6540.68</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="12">
         <f>MIN('tLS30'!B14:AE14)</f>
         <v>0.14879899999999999</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="13">
         <f>MAX('tLS30'!B14:AE14)</f>
         <v>17906.599999999999</v>
       </c>
@@ -9172,54 +9192,54 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="12">
         <f>MIN('tBS10'!B15:AE15)</f>
         <v>1.7316000000000002E-2</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="13">
         <f>MAX('tBS10'!B15:AE15)</f>
         <v>1.8887999999999999E-2</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="12">
         <f>MIN('tBS20'!B15:AE15)</f>
         <v>1.7409000000000001E-2</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="13">
         <f>MAX('tBS20'!B15:AE15)</f>
         <v>1.9018E-2</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="12">
         <f>MIN('tBS30'!B15:AE15)</f>
         <v>1.7247999999999999E-2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="13">
         <f>MAX('tBS30'!B15:AE15)</f>
         <v>2.6661000000000001E-2</v>
       </c>
       <c r="I19">
         <v>15</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="12">
         <f>MIN('tLS10'!B15:AE15)</f>
         <v>9.0969999999999992E-3</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="13">
         <f>MAX('tLS10'!B15:AE15)</f>
         <v>1.3663E-2</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="12">
         <f>MIN('tLS20'!B15:AE15)</f>
         <v>1.7368999999999999E-2</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="13">
         <f>MAX('tLS20'!B15:AE15)</f>
         <v>2.4351999999999999E-2</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="12">
         <f>MIN('tLS30'!B15:AE15)</f>
         <v>2.3972E-2</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="13">
         <f>MAX('tLS30'!B15:AE15)</f>
         <v>3.2646000000000001E-2</v>
       </c>
@@ -9228,54 +9248,54 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="12">
         <f>MIN('tBS10'!B16:AE16)</f>
         <v>3.8670999999999997E-2</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="13">
         <f>MAX('tBS10'!B16:AE16)</f>
         <v>6.0365000000000002E-2</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="12">
         <f>MIN('tBS20'!B16:AE16)</f>
         <v>3.8422999999999999E-2</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="13">
         <f>MAX('tBS20'!B16:AE16)</f>
         <v>4.1222000000000002E-2</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="12">
         <f>MIN('tBS30'!B16:AE16)</f>
         <v>4.2522999999999998E-2</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="13">
         <f>MAX('tBS30'!B16:AE16)</f>
         <v>5.8673999999999997E-2</v>
       </c>
       <c r="I20">
         <v>16</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="12">
         <f>MIN('tLS10'!B16:AE16)</f>
         <v>3.6044E-2</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="13">
         <f>MAX('tLS10'!B16:AE16)</f>
         <v>11.481400000000001</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="12">
         <f>MIN('tLS20'!B16:AE16)</f>
         <v>5.0305999999999997E-2</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="13">
         <f>MAX('tLS20'!B16:AE16)</f>
         <v>41.743099999999998</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="12">
         <f>MIN('tLS30'!B16:AE16)</f>
         <v>6.1636899999999999</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="13">
         <f>MAX('tLS30'!B16:AE16)</f>
         <v>91.126499999999993</v>
       </c>
@@ -9284,117 +9304,117 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="12">
         <f>MIN('tBS10'!B17:AE17)</f>
         <v>1.0153000000000001E-2</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="13">
         <f>MAX('tBS10'!B17:AE17)</f>
         <v>5.4032999999999998E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="12">
         <f>MIN('tBS20'!B17:AE17)</f>
         <v>1.6531000000000001E-2</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="13">
         <f>MAX('tBS20'!B17:AE17)</f>
         <v>1.7961999999999999E-2</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="12">
         <f>MIN('tBS30'!B17:AE17)</f>
         <v>1.5795E-2</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="13">
         <f>MAX('tBS30'!B17:AE17)</f>
         <v>0.32687300000000002</v>
       </c>
       <c r="I21">
         <v>17</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="12">
         <f>MIN('tLS10'!B17:AE17)</f>
         <v>4.292E-2</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="13">
         <f>MAX('tLS10'!B17:AE17)</f>
         <v>6.5057000000000004E-2</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="12">
         <f>MIN('tLS20'!B17:AE17)</f>
         <v>0.117273</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="13">
         <f>MAX('tLS20'!B17:AE17)</f>
         <v>0.18326899999999999</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="12">
         <f>MIN('tLS30'!B17:AE17)</f>
         <v>0.216475</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="13">
         <f>MAX('tLS30'!B17:AE17)</f>
         <v>0.31098599999999998</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="14">
         <f>MIN('tBS10'!B18:AE18)</f>
         <v>1.8218999999999999E-2</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="15">
         <f>MAX('tBS10'!B18:AE18)</f>
         <v>2.2627999999999999E-2</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="14">
         <f>MIN('tBS20'!B18:AE18)</f>
         <v>3.0099000000000001E-2</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="15">
         <f>MAX('tBS20'!B18:AE18)</f>
         <v>3.8945E-2</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="14">
         <f>MIN('tBS30'!B18:AE18)</f>
         <v>3.6673999999999998E-2</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="15">
         <f>MAX('tBS30'!B18:AE18)</f>
         <v>5.5745999999999997E-2</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="8">
         <v>18</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="14">
         <f>MIN('tLS10'!B18:AE18)</f>
         <v>2.0362000000000002E-2</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="15">
         <f>MAX('tLS10'!B18:AE18)</f>
         <v>4.1195000000000002E-2</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="14">
         <f>MIN('tLS20'!B18:AE18)</f>
         <v>4.4110999999999997E-2</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="15">
         <f>MAX('tLS20'!B18:AE18)</f>
         <v>9.4976000000000005E-2</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="14">
         <f>MIN('tLS30'!B18:AE18)</f>
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="15">
         <f>MAX('tLS30'!B18:AE18)</f>
         <v>0.19347600000000001</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9413,289 +9433,314 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A3:W43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:T22"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="33" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="33" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="K4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="L4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="M4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="N4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="R4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="21">
+        <f>AVERAGE('fBS10'!B1:AE1)</f>
+        <v>2944.8336666666664</v>
+      </c>
+      <c r="C5" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B1:AE1)</f>
+        <v>315.52286460713441</v>
+      </c>
+      <c r="D5" s="21">
+        <f>MAX('fBS10'!B1:AE1) - MIN('fBS10'!B1:AE1)</f>
+        <v>1240.7599999999998</v>
+      </c>
+      <c r="E5" s="21">
+        <f>MEDIAN('fBS10'!B1:AE1)</f>
+        <v>2978.9300000000003</v>
+      </c>
+      <c r="F5" s="11">
+        <f>AVERAGE('tBS10'!B1:AE1)</f>
+        <v>0.12092883333333332</v>
+      </c>
+      <c r="G5" s="5">
         <f>MIN('fBS10'!B1:AE1)</f>
         <v>2299.2800000000002</v>
       </c>
-      <c r="C5" s="28">
-        <f>AVERAGE('fBS10'!B1:AE1)</f>
-        <v>2944.8336666666664</v>
-      </c>
-      <c r="D5" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B1:AE1)</f>
-        <v>315.52286460713441</v>
-      </c>
-      <c r="E5" s="28">
-        <f>MAX('fBS10'!B1:AE1) - MIN('fBS10'!B1:AE1)</f>
-        <v>1240.7599999999998</v>
-      </c>
-      <c r="F5" s="28">
-        <f>MEDIAN('fBS10'!B1:AE1)</f>
-        <v>2978.9300000000003</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5">
+      <c r="H5" s="21"/>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="21">
+        <f>AVERAGE('fBS20'!B1:AE1)</f>
+        <v>6521.1573333333354</v>
+      </c>
+      <c r="K5" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B1:AE1)</f>
+        <v>422.88737251529381</v>
+      </c>
+      <c r="L5" s="21">
+        <f>MAX('fBS20'!B1:AE1) - MIN('fBS20'!B1:AE1)</f>
+        <v>1773.63</v>
+      </c>
+      <c r="M5" s="21">
+        <f>MEDIAN('fBS20'!B1:AE1)</f>
+        <v>6466.0149999999994</v>
+      </c>
+      <c r="N5" s="11">
+        <f>AVERAGE('tBS20'!B1:AE1)</f>
+        <v>5.1587466666666665E-2</v>
+      </c>
+      <c r="O5" s="5">
         <f>MIN('fBS20'!B1:AE1)</f>
         <v>5572.55</v>
       </c>
-      <c r="J5" s="28">
-        <f>AVERAGE('fBS20'!B1:AE1)</f>
-        <v>6521.1573333333354</v>
-      </c>
-      <c r="K5" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B1:AE1)</f>
-        <v>422.88737251529381</v>
-      </c>
-      <c r="L5" s="28">
-        <f>MAX('fBS20'!B1:AE1) - MIN('fBS20'!B1:AE1)</f>
-        <v>1773.63</v>
-      </c>
-      <c r="M5" s="28">
-        <f>MEDIAN('fBS20'!B1:AE1)</f>
-        <v>6466.0149999999994</v>
-      </c>
-      <c r="N5" s="28"/>
-      <c r="O5">
+      <c r="P5" s="21"/>
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="P5" s="5">
+      <c r="R5" s="21">
+        <f>AVERAGE('fBS30'!B1:AE1)</f>
+        <v>10502.842333333336</v>
+      </c>
+      <c r="S5" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B1:AE1)</f>
+        <v>383.21731658580143</v>
+      </c>
+      <c r="T5" s="21">
+        <f>MAX('fBS30'!B1:AE1) - MIN('fBS30'!B1:AE1)</f>
+        <v>1592.6900000000005</v>
+      </c>
+      <c r="U5" s="21">
+        <f>MEDIAN('fBS30'!B1:AE1)</f>
+        <v>10465.349999999999</v>
+      </c>
+      <c r="V5" s="11">
+        <f>AVERAGE('tBS30'!B1:AE1)</f>
+        <v>7.9171166666666667E-2</v>
+      </c>
+      <c r="W5" s="5">
         <f>MIN('fBS30'!B1:AE1)</f>
         <v>9725.31</v>
       </c>
-      <c r="Q5" s="28">
-        <f>AVERAGE('fBS30'!B1:AE1)</f>
-        <v>10502.842333333336</v>
-      </c>
-      <c r="R5" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B1:AE1)</f>
-        <v>383.21731658580143</v>
-      </c>
-      <c r="S5" s="28">
-        <f>MAX('fBS30'!B1:AE1) - MIN('fBS30'!B1:AE1)</f>
-        <v>1592.6900000000005</v>
-      </c>
-      <c r="T5" s="28">
-        <f>MEDIAN('fBS30'!B1:AE1)</f>
-        <v>10465.349999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="21">
+        <f>AVERAGE('fBS10'!B2:AE2)</f>
+        <v>15267.403666666662</v>
+      </c>
+      <c r="C6" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B2:AE2)</f>
+        <v>3084.6010309260359</v>
+      </c>
+      <c r="D6" s="21">
+        <f>MAX('fBS10'!B2:AE2) - MIN('fBS10'!B2:AE2)</f>
+        <v>13221.689999999999</v>
+      </c>
+      <c r="E6" s="21">
+        <f>MEDIAN('fBS10'!B2:AE2)</f>
+        <v>15705.5</v>
+      </c>
+      <c r="F6" s="13">
+        <f>AVERAGE('tBS10'!B2:AE2)</f>
+        <v>2.2583499999999992E-2</v>
+      </c>
+      <c r="G6" s="3">
         <f>MIN('fBS10'!B2:AE2)</f>
         <v>9461.91</v>
       </c>
-      <c r="C6" s="28">
-        <f>AVERAGE('fBS10'!B2:AE2)</f>
-        <v>15267.403666666662</v>
-      </c>
-      <c r="D6" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B2:AE2)</f>
-        <v>3084.6010309260359</v>
-      </c>
-      <c r="E6" s="28">
-        <f>MAX('fBS10'!B2:AE2) - MIN('fBS10'!B2:AE2)</f>
-        <v>13221.689999999999</v>
-      </c>
-      <c r="F6" s="28">
-        <f>MEDIAN('fBS10'!B2:AE2)</f>
-        <v>15705.5</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6">
+      <c r="H6" s="21"/>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="21">
+        <f>AVERAGE('fBS20'!B2:AE2)</f>
+        <v>40544.849999999991</v>
+      </c>
+      <c r="K6" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B2:AE2)</f>
+        <v>5837.8934642985923</v>
+      </c>
+      <c r="L6" s="21">
+        <f>MAX('fBS20'!B2:AE2) - MIN('fBS20'!B2:AE2)</f>
+        <v>23767.4</v>
+      </c>
+      <c r="M6" s="21">
+        <f>MEDIAN('fBS20'!B2:AE2)</f>
+        <v>42004.35</v>
+      </c>
+      <c r="N6" s="13">
+        <f>AVERAGE('tBS20'!B2:AE2)</f>
+        <v>1.869846666666667E-2</v>
+      </c>
+      <c r="O6" s="3">
         <f>MIN('fBS20'!B2:AE2)</f>
         <v>29284.6</v>
       </c>
-      <c r="J6" s="28">
-        <f>AVERAGE('fBS20'!B2:AE2)</f>
-        <v>40544.849999999991</v>
-      </c>
-      <c r="K6" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B2:AE2)</f>
-        <v>5837.8934642985923</v>
-      </c>
-      <c r="L6" s="28">
-        <f>MAX('fBS20'!B2:AE2) - MIN('fBS20'!B2:AE2)</f>
-        <v>23767.4</v>
-      </c>
-      <c r="M6" s="28">
-        <f>MEDIAN('fBS20'!B2:AE2)</f>
-        <v>42004.35</v>
-      </c>
-      <c r="N6" s="28"/>
-      <c r="O6">
+      <c r="P6" s="21"/>
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="R6" s="21">
+        <f>AVERAGE('fBS30'!B2:AE2)</f>
+        <v>68757.256666666668</v>
+      </c>
+      <c r="S6" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B2:AE2)</f>
+        <v>7670.7291240873974</v>
+      </c>
+      <c r="T6" s="21">
+        <f>MAX('fBS30'!B2:AE2) - MIN('fBS30'!B2:AE2)</f>
+        <v>33798.199999999997</v>
+      </c>
+      <c r="U6" s="21">
+        <f>MEDIAN('fBS30'!B2:AE2)</f>
+        <v>68587.799999999988</v>
+      </c>
+      <c r="V6" s="13">
+        <f>AVERAGE('tBS30'!B2:AE2)</f>
+        <v>2.5244200000000005E-2</v>
+      </c>
+      <c r="W6" s="3">
         <f>MIN('fBS30'!B2:AE2)</f>
         <v>51342.8</v>
       </c>
-      <c r="Q6" s="28">
-        <f>AVERAGE('fBS30'!B2:AE2)</f>
-        <v>68757.256666666668</v>
-      </c>
-      <c r="R6" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B2:AE2)</f>
-        <v>7670.7291240873974</v>
-      </c>
-      <c r="S6" s="28">
-        <f>MAX('fBS30'!B2:AE2) - MIN('fBS30'!B2:AE2)</f>
-        <v>33798.199999999997</v>
-      </c>
-      <c r="T6" s="28">
-        <f>MEDIAN('fBS30'!B2:AE2)</f>
-        <v>68587.799999999988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="1">
+        <f>AVERAGE('fBS10'!B3:AE3)</f>
+        <v>4080629733.3333335</v>
+      </c>
+      <c r="C7" s="1">
+        <f>_xlfn.STDEV.P('fBS10'!B3:AE3)</f>
+        <v>2318464882.0462193</v>
+      </c>
+      <c r="D7" s="1">
+        <f>MAX('fBS10'!B3:AE3) - MIN('fBS10'!B3:AE3)</f>
+        <v>9185541000</v>
+      </c>
+      <c r="E7" s="1">
+        <f>MEDIAN('fBS10'!B3:AE3)</f>
+        <v>4261520000</v>
+      </c>
+      <c r="F7" s="13">
+        <f>AVERAGE('tBS10'!B3:AE3)</f>
+        <v>2.1208333333333336E-2</v>
+      </c>
+      <c r="G7" s="30">
         <f>MIN('fBS10'!B3:AE3)</f>
         <v>379699000</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE('fBS10'!B3:AE3)</f>
-        <v>4080629733.3333335</v>
-      </c>
-      <c r="D7" s="1">
-        <f>_xlfn.STDEV.P('fBS10'!B3:AE3)</f>
-        <v>2318464882.0462193</v>
-      </c>
-      <c r="E7" s="1">
-        <f>MAX('fBS10'!B3:AE3) - MIN('fBS10'!B3:AE3)</f>
-        <v>9185541000</v>
-      </c>
-      <c r="F7" s="1">
-        <f>MEDIAN('fBS10'!B3:AE3)</f>
-        <v>4261520000</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7">
+      <c r="H7" s="1"/>
+      <c r="I7">
         <v>3</v>
-      </c>
-      <c r="I7" s="35">
-        <f>MIN('fBS20'!B3:AE3)</f>
-        <v>8645410000</v>
       </c>
       <c r="J7" s="1">
         <f>AVERAGE('fBS20'!B3:AE3)</f>
@@ -9713,865 +9758,1009 @@
         <f>MEDIAN('fBS20'!B3:AE3)</f>
         <v>16387600000</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7">
+      <c r="N7" s="13">
+        <f>AVERAGE('tBS20'!B3:AE3)</f>
+        <v>1.8673633333333335E-2</v>
+      </c>
+      <c r="O7" s="30">
+        <f>MIN('fBS20'!B3:AE3)</f>
+        <v>8645410000</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="P7" s="35">
+      <c r="R7" s="1">
+        <f>AVERAGE('fBS30'!B3:AE3)</f>
+        <v>31714663333.333332</v>
+      </c>
+      <c r="S7" s="1">
+        <f>_xlfn.STDEV.P('fBS30'!B3:AE3)</f>
+        <v>5587384045.5370646</v>
+      </c>
+      <c r="T7" s="1">
+        <f>MAX('fBS30'!B3:AE3) - MIN('fBS30'!B3:AE3)</f>
+        <v>24610400000</v>
+      </c>
+      <c r="U7" s="1">
+        <f>MEDIAN('fBS30'!B3:AE3)</f>
+        <v>30894600000</v>
+      </c>
+      <c r="V7" s="13">
+        <f>AVERAGE('tBS30'!B3:AE3)</f>
+        <v>2.6669966666666666E-2</v>
+      </c>
+      <c r="W7" s="30">
         <f>MIN('fBS30'!B3:AE3)</f>
         <v>19616900000</v>
       </c>
-      <c r="Q7" s="1">
-        <f>AVERAGE('fBS30'!B3:AE3)</f>
-        <v>31714663333.333332</v>
-      </c>
-      <c r="R7" s="1">
-        <f>_xlfn.STDEV.P('fBS30'!B3:AE3)</f>
-        <v>5587384045.5370646</v>
-      </c>
-      <c r="S7" s="1">
-        <f>MAX('fBS30'!B3:AE3) - MIN('fBS30'!B3:AE3)</f>
-        <v>24610400000</v>
-      </c>
-      <c r="T7" s="1">
-        <f>MEDIAN('fBS30'!B3:AE3)</f>
-        <v>30894600000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="21">
+        <f>AVERAGE('fBS10'!B4:AE4)</f>
+        <v>137205.87000000002</v>
+      </c>
+      <c r="C8" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B4:AE4)</f>
+        <v>38162.188607670687</v>
+      </c>
+      <c r="D8" s="21">
+        <f>MAX('fBS10'!B4:AE4) - MIN('fBS10'!B4:AE4)</f>
+        <v>153540.4</v>
+      </c>
+      <c r="E8" s="21">
+        <f>MEDIAN('fBS10'!B4:AE4)</f>
+        <v>141574.5</v>
+      </c>
+      <c r="F8" s="13">
+        <f>AVERAGE('tBS10'!B4:AE4)</f>
+        <v>4.3225033333333336E-2</v>
+      </c>
+      <c r="G8" s="3">
         <f>MIN('fBS10'!B4:AE4)</f>
         <v>68476.600000000006</v>
       </c>
-      <c r="C8" s="28">
-        <f>AVERAGE('fBS10'!B4:AE4)</f>
-        <v>137205.87000000002</v>
-      </c>
-      <c r="D8" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B4:AE4)</f>
-        <v>38162.188607670687</v>
-      </c>
-      <c r="E8" s="28">
-        <f>MAX('fBS10'!B4:AE4) - MIN('fBS10'!B4:AE4)</f>
-        <v>153540.4</v>
-      </c>
-      <c r="F8" s="28">
-        <f>MEDIAN('fBS10'!B4:AE4)</f>
-        <v>141574.5</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8">
+      <c r="H8" s="21"/>
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="21">
+        <f>AVERAGE('fBS20'!B4:AE4)</f>
+        <v>740094.06666666665</v>
+      </c>
+      <c r="K8" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B4:AE4)</f>
+        <v>118027.76341463995</v>
+      </c>
+      <c r="L8" s="21">
+        <f>MAX('fBS20'!B4:AE4) - MIN('fBS20'!B4:AE4)</f>
+        <v>563741</v>
+      </c>
+      <c r="M8" s="21">
+        <f>MEDIAN('fBS20'!B4:AE4)</f>
+        <v>752434</v>
+      </c>
+      <c r="N8" s="13">
+        <f>AVERAGE('tBS20'!B4:AE4)</f>
+        <v>4.1124000000000008E-2</v>
+      </c>
+      <c r="O8" s="3">
         <f>MIN('fBS20'!B4:AE4)</f>
         <v>426471</v>
       </c>
-      <c r="J8" s="28">
-        <f>AVERAGE('fBS20'!B4:AE4)</f>
-        <v>740094.06666666665</v>
-      </c>
-      <c r="K8" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B4:AE4)</f>
-        <v>118027.76341463995</v>
-      </c>
-      <c r="L8" s="28">
-        <f>MAX('fBS20'!B4:AE4) - MIN('fBS20'!B4:AE4)</f>
-        <v>563741</v>
-      </c>
-      <c r="M8" s="28">
-        <f>MEDIAN('fBS20'!B4:AE4)</f>
-        <v>752434</v>
-      </c>
-      <c r="N8" s="28"/>
-      <c r="O8">
+      <c r="P8" s="21"/>
+      <c r="Q8">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="21">
+        <f>AVERAGE('fBS30'!B4:AE4)</f>
+        <v>1758367.3333333333</v>
+      </c>
+      <c r="S8" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B4:AE4)</f>
+        <v>250518.27673755772</v>
+      </c>
+      <c r="T8" s="21">
+        <f>MAX('fBS30'!B4:AE4) - MIN('fBS30'!B4:AE4)</f>
+        <v>1065510</v>
+      </c>
+      <c r="U8" s="21">
+        <f>MEDIAN('fBS30'!B4:AE4)</f>
+        <v>1768355</v>
+      </c>
+      <c r="V8" s="13">
+        <f>AVERAGE('tBS30'!B4:AE4)</f>
+        <v>5.5619500000000002E-2</v>
+      </c>
+      <c r="W8" s="3">
         <f>MIN('fBS30'!B4:AE4)</f>
         <v>1103910</v>
       </c>
-      <c r="Q8" s="28">
-        <f>AVERAGE('fBS30'!B4:AE4)</f>
-        <v>1758367.3333333333</v>
-      </c>
-      <c r="R8" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B4:AE4)</f>
-        <v>250518.27673755772</v>
-      </c>
-      <c r="S8" s="28">
-        <f>MAX('fBS30'!B4:AE4) - MIN('fBS30'!B4:AE4)</f>
-        <v>1065510</v>
-      </c>
-      <c r="T8" s="28">
-        <f>MEDIAN('fBS30'!B4:AE4)</f>
-        <v>1768355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="21">
+        <f>AVERAGE('fBS10'!B5:AE5)</f>
+        <v>89.451393333333343</v>
+      </c>
+      <c r="C9" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B5:AE5)</f>
+        <v>27.827510549980666</v>
+      </c>
+      <c r="D9" s="21">
+        <f>MAX('fBS10'!B5:AE5) - MIN('fBS10'!B5:AE5)</f>
+        <v>96.751000000000005</v>
+      </c>
+      <c r="E9" s="21">
+        <f>MEDIAN('fBS10'!B5:AE5)</f>
+        <v>98.09405000000001</v>
+      </c>
+      <c r="F9" s="13">
+        <f>AVERAGE('tBS10'!B5:AE5)</f>
+        <v>4.9813200000000009E-2</v>
+      </c>
+      <c r="G9" s="3">
         <f>MIN('fBS10'!B5:AE5)</f>
         <v>33.256999999999998</v>
       </c>
-      <c r="C9" s="28">
-        <f>AVERAGE('fBS10'!B5:AE5)</f>
-        <v>89.451393333333343</v>
-      </c>
-      <c r="D9" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B5:AE5)</f>
-        <v>27.827510549980666</v>
-      </c>
-      <c r="E9" s="28">
-        <f>MAX('fBS10'!B5:AE5) - MIN('fBS10'!B5:AE5)</f>
-        <v>96.751000000000005</v>
-      </c>
-      <c r="F9" s="28">
-        <f>MEDIAN('fBS10'!B5:AE5)</f>
-        <v>98.09405000000001</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9">
+      <c r="H9" s="21"/>
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="21">
+        <f>AVERAGE('fBS20'!B5:AE5)</f>
+        <v>266.8685666666666</v>
+      </c>
+      <c r="K9" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B5:AE5)</f>
+        <v>28.484504304017541</v>
+      </c>
+      <c r="L9" s="21">
+        <f>MAX('fBS20'!B5:AE5) - MIN('fBS20'!B5:AE5)</f>
+        <v>110.678</v>
+      </c>
+      <c r="M9" s="21">
+        <f>MEDIAN('fBS20'!B5:AE5)</f>
+        <v>265.88599999999997</v>
+      </c>
+      <c r="N9" s="13">
+        <f>AVERAGE('tBS20'!B5:AE5)</f>
+        <v>4.9257533333333339E-2</v>
+      </c>
+      <c r="O9" s="3">
         <f>MIN('fBS20'!B5:AE5)</f>
         <v>213.714</v>
       </c>
-      <c r="J9" s="28">
-        <f>AVERAGE('fBS20'!B5:AE5)</f>
-        <v>266.8685666666666</v>
-      </c>
-      <c r="K9" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B5:AE5)</f>
-        <v>28.484504304017541</v>
-      </c>
-      <c r="L9" s="28">
-        <f>MAX('fBS20'!B5:AE5) - MIN('fBS20'!B5:AE5)</f>
-        <v>110.678</v>
-      </c>
-      <c r="M9" s="28">
-        <f>MEDIAN('fBS20'!B5:AE5)</f>
-        <v>265.88599999999997</v>
-      </c>
-      <c r="N9" s="28"/>
-      <c r="O9">
+      <c r="P9" s="21"/>
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="21">
+        <f>AVERAGE('fBS30'!B5:AE5)</f>
+        <v>425.78636666666665</v>
+      </c>
+      <c r="S9" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B5:AE5)</f>
+        <v>44.730248822232781</v>
+      </c>
+      <c r="T9" s="21">
+        <f>MAX('fBS30'!B5:AE5) - MIN('fBS30'!B5:AE5)</f>
+        <v>209.78700000000003</v>
+      </c>
+      <c r="U9" s="21">
+        <f>MEDIAN('fBS30'!B5:AE5)</f>
+        <v>432.34050000000002</v>
+      </c>
+      <c r="V9" s="13">
+        <f>AVERAGE('tBS30'!B5:AE5)</f>
+        <v>6.502369999999999E-2</v>
+      </c>
+      <c r="W9" s="3">
         <f>MIN('fBS30'!B5:AE5)</f>
         <v>287.91899999999998</v>
       </c>
-      <c r="Q9" s="28">
-        <f>AVERAGE('fBS30'!B5:AE5)</f>
-        <v>425.78636666666665</v>
-      </c>
-      <c r="R9" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B5:AE5)</f>
-        <v>44.730248822232781</v>
-      </c>
-      <c r="S9" s="28">
-        <f>MAX('fBS30'!B5:AE5) - MIN('fBS30'!B5:AE5)</f>
-        <v>209.78700000000003</v>
-      </c>
-      <c r="T9" s="28">
-        <f>MEDIAN('fBS30'!B5:AE5)</f>
-        <v>432.34050000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="21">
+        <f>AVERAGE('fBS10'!B6:AE6)</f>
+        <v>-8.0955896666666671</v>
+      </c>
+      <c r="C10" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B6:AE6)</f>
+        <v>0.3727898492223497</v>
+      </c>
+      <c r="D10" s="21">
+        <f>MAX('fBS10'!B6:AE6) - MIN('fBS10'!B6:AE6)</f>
+        <v>1.6557300000000001</v>
+      </c>
+      <c r="E10" s="21">
+        <f>MEDIAN('fBS10'!B6:AE6)</f>
+        <v>-8.1164500000000004</v>
+      </c>
+      <c r="F10" s="13">
+        <f>AVERAGE('tBS10'!B6:AE6)</f>
+        <v>4.2176333333333337E-2</v>
+      </c>
+      <c r="G10" s="3">
         <f>MIN('fBS10'!B6:AE6)</f>
         <v>-8.8585799999999999</v>
       </c>
-      <c r="C10" s="28">
-        <f>AVERAGE('fBS10'!B6:AE6)</f>
-        <v>-8.0955896666666671</v>
-      </c>
-      <c r="D10" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B6:AE6)</f>
-        <v>0.3727898492223497</v>
-      </c>
-      <c r="E10" s="28">
-        <f>MAX('fBS10'!B6:AE6) - MIN('fBS10'!B6:AE6)</f>
-        <v>1.6557300000000001</v>
-      </c>
-      <c r="F10" s="28">
-        <f>MEDIAN('fBS10'!B6:AE6)</f>
-        <v>-8.1164500000000004</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10">
+      <c r="H10" s="21"/>
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="21">
+        <f>AVERAGE('fBS20'!B6:AE6)</f>
+        <v>-16.090973333333334</v>
+      </c>
+      <c r="K10" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B6:AE6)</f>
+        <v>0.70770957646637955</v>
+      </c>
+      <c r="L10" s="21">
+        <f>MAX('fBS20'!B6:AE6) - MIN('fBS20'!B6:AE6)</f>
+        <v>3.1620000000000008</v>
+      </c>
+      <c r="M10" s="21">
+        <f>MEDIAN('fBS20'!B6:AE6)</f>
+        <v>-15.982700000000001</v>
+      </c>
+      <c r="N10" s="13">
+        <f>AVERAGE('tBS20'!B6:AE6)</f>
+        <v>4.2104433333333344E-2</v>
+      </c>
+      <c r="O10" s="3">
         <f>MIN('fBS20'!B6:AE6)</f>
         <v>-18.097100000000001</v>
       </c>
-      <c r="J10" s="28">
-        <f>AVERAGE('fBS20'!B6:AE6)</f>
-        <v>-16.090973333333334</v>
-      </c>
-      <c r="K10" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B6:AE6)</f>
-        <v>0.70770957646637955</v>
-      </c>
-      <c r="L10" s="28">
-        <f>MAX('fBS20'!B6:AE6) - MIN('fBS20'!B6:AE6)</f>
-        <v>3.1620000000000008</v>
-      </c>
-      <c r="M10" s="28">
-        <f>MEDIAN('fBS20'!B6:AE6)</f>
-        <v>-15.982700000000001</v>
-      </c>
-      <c r="N10" s="28"/>
-      <c r="O10">
+      <c r="P10" s="21"/>
+      <c r="Q10">
         <v>6</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="21">
+        <f>AVERAGE('fBS30'!B6:AE6)</f>
+        <v>-24.05120666666668</v>
+      </c>
+      <c r="S10" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B6:AE6)</f>
+        <v>0.89627643463882767</v>
+      </c>
+      <c r="T10" s="21">
+        <f>MAX('fBS30'!B6:AE6) - MIN('fBS30'!B6:AE6)</f>
+        <v>3.8332000000000015</v>
+      </c>
+      <c r="U10" s="21">
+        <f>MEDIAN('fBS30'!B6:AE6)</f>
+        <v>-23.896549999999998</v>
+      </c>
+      <c r="V10" s="13">
+        <f>AVERAGE('tBS30'!B6:AE6)</f>
+        <v>5.6377766666666669E-2</v>
+      </c>
+      <c r="W10" s="3">
         <f>MIN('fBS30'!B6:AE6)</f>
         <v>-26.5989</v>
       </c>
-      <c r="Q10" s="28">
-        <f>AVERAGE('fBS30'!B6:AE6)</f>
-        <v>-24.05120666666668</v>
-      </c>
-      <c r="R10" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B6:AE6)</f>
-        <v>0.89627643463882767</v>
-      </c>
-      <c r="S10" s="28">
-        <f>MAX('fBS30'!B6:AE6) - MIN('fBS30'!B6:AE6)</f>
-        <v>3.8332000000000015</v>
-      </c>
-      <c r="T10" s="28">
-        <f>MEDIAN('fBS30'!B6:AE6)</f>
-        <v>-23.896549999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="21">
+        <f>AVERAGE('fBS10'!B7:AE7)</f>
+        <v>19.24584333333333</v>
+      </c>
+      <c r="C11" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B7:AE7)</f>
+        <v>2.0283427119504291</v>
+      </c>
+      <c r="D11" s="21">
+        <f>MAX('fBS10'!B7:AE7) - MIN('fBS10'!B7:AE7)</f>
+        <v>9.7887999999999984</v>
+      </c>
+      <c r="E11" s="21">
+        <f>MEDIAN('fBS10'!B7:AE7)</f>
+        <v>19.413049999999998</v>
+      </c>
+      <c r="F11" s="13">
+        <f>AVERAGE('tBS10'!B7:AE7)</f>
+        <v>9.2876699999999979E-2</v>
+      </c>
+      <c r="G11" s="3">
         <f>MIN('fBS10'!B7:AE7)</f>
         <v>15.0808</v>
       </c>
-      <c r="C11" s="28">
-        <f>AVERAGE('fBS10'!B7:AE7)</f>
-        <v>19.24584333333333</v>
-      </c>
-      <c r="D11" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B7:AE7)</f>
-        <v>2.0283427119504291</v>
-      </c>
-      <c r="E11" s="28">
-        <f>MAX('fBS10'!B7:AE7) - MIN('fBS10'!B7:AE7)</f>
-        <v>9.7887999999999984</v>
-      </c>
-      <c r="F11" s="28">
-        <f>MEDIAN('fBS10'!B7:AE7)</f>
-        <v>19.413049999999998</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11">
+      <c r="H11" s="21"/>
+      <c r="I11">
         <v>7</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="21">
+        <f>AVERAGE('fBS20'!B7:AE7)</f>
+        <v>47.226113333333338</v>
+      </c>
+      <c r="K11" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B7:AE7)</f>
+        <v>3.9605372758194761</v>
+      </c>
+      <c r="L11" s="21">
+        <f>MAX('fBS20'!B7:AE7) - MIN('fBS20'!B7:AE7)</f>
+        <v>17.908699999999996</v>
+      </c>
+      <c r="M11" s="21">
+        <f>MEDIAN('fBS20'!B7:AE7)</f>
+        <v>47.108699999999999</v>
+      </c>
+      <c r="N11" s="13">
+        <f>AVERAGE('tBS20'!B7:AE7)</f>
+        <v>9.3572733333333338E-2</v>
+      </c>
+      <c r="O11" s="3">
         <f>MIN('fBS20'!B7:AE7)</f>
         <v>38.236400000000003</v>
       </c>
-      <c r="J11" s="28">
-        <f>AVERAGE('fBS20'!B7:AE7)</f>
-        <v>47.226113333333338</v>
-      </c>
-      <c r="K11" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B7:AE7)</f>
-        <v>3.9605372758194761</v>
-      </c>
-      <c r="L11" s="28">
-        <f>MAX('fBS20'!B7:AE7) - MIN('fBS20'!B7:AE7)</f>
-        <v>17.908699999999996</v>
-      </c>
-      <c r="M11" s="28">
-        <f>MEDIAN('fBS20'!B7:AE7)</f>
-        <v>47.108699999999999</v>
-      </c>
-      <c r="N11" s="28"/>
-      <c r="O11">
+      <c r="P11" s="21"/>
+      <c r="Q11">
         <v>7</v>
       </c>
-      <c r="P11" s="3">
+      <c r="R11" s="21">
+        <f>AVERAGE('fBS30'!B7:AE7)</f>
+        <v>76.069796666666662</v>
+      </c>
+      <c r="S11" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B7:AE7)</f>
+        <v>3.7649045403996921</v>
+      </c>
+      <c r="T11" s="21">
+        <f>MAX('fBS30'!B7:AE7) - MIN('fBS30'!B7:AE7)</f>
+        <v>14.001499999999993</v>
+      </c>
+      <c r="U11" s="21">
+        <f>MEDIAN('fBS30'!B7:AE7)</f>
+        <v>76.778150000000011</v>
+      </c>
+      <c r="V11" s="13">
+        <f>AVERAGE('tBS30'!B7:AE7)</f>
+        <v>0.12822783333333332</v>
+      </c>
+      <c r="W11" s="3">
         <f>MIN('fBS30'!B7:AE7)</f>
         <v>68.166600000000003</v>
       </c>
-      <c r="Q11" s="28">
-        <f>AVERAGE('fBS30'!B7:AE7)</f>
-        <v>76.069796666666662</v>
-      </c>
-      <c r="R11" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B7:AE7)</f>
-        <v>3.7649045403996921</v>
-      </c>
-      <c r="S11" s="28">
-        <f>MAX('fBS30'!B7:AE7) - MIN('fBS30'!B7:AE7)</f>
-        <v>14.001499999999993</v>
-      </c>
-      <c r="T11" s="28">
-        <f>MEDIAN('fBS30'!B7:AE7)</f>
-        <v>76.778150000000011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="21">
+        <f>AVERAGE('fBS10'!B8:AE8)</f>
+        <v>119.02176999999996</v>
+      </c>
+      <c r="C12" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B8:AE8)</f>
+        <v>15.604048487559625</v>
+      </c>
+      <c r="D12" s="21">
+        <f>MAX('fBS10'!B8:AE8) - MIN('fBS10'!B8:AE8)</f>
+        <v>65.231400000000008</v>
+      </c>
+      <c r="E12" s="21">
+        <f>MEDIAN('fBS10'!B8:AE8)</f>
+        <v>117.01349999999999</v>
+      </c>
+      <c r="F12" s="13">
+        <f>AVERAGE('tBS10'!B8:AE8)</f>
+        <v>5.3910100000000009E-2</v>
+      </c>
+      <c r="G12" s="3">
         <f>MIN('fBS10'!B8:AE8)</f>
         <v>86.758600000000001</v>
       </c>
-      <c r="C12" s="28">
-        <f>AVERAGE('fBS10'!B8:AE8)</f>
-        <v>119.02176999999996</v>
-      </c>
-      <c r="D12" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B8:AE8)</f>
-        <v>15.604048487559625</v>
-      </c>
-      <c r="E12" s="28">
-        <f>MAX('fBS10'!B8:AE8) - MIN('fBS10'!B8:AE8)</f>
-        <v>65.231400000000008</v>
-      </c>
-      <c r="F12" s="28">
-        <f>MEDIAN('fBS10'!B8:AE8)</f>
-        <v>117.01349999999999</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12">
+      <c r="H12" s="21"/>
+      <c r="I12">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="21">
+        <f>AVERAGE('fBS20'!B8:AE8)</f>
+        <v>279.02553333333333</v>
+      </c>
+      <c r="K12" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B8:AE8)</f>
+        <v>31.834497980161292</v>
+      </c>
+      <c r="L12" s="21">
+        <f>MAX('fBS20'!B8:AE8) - MIN('fBS20'!B8:AE8)</f>
+        <v>121.91800000000003</v>
+      </c>
+      <c r="M12" s="21">
+        <f>MEDIAN('fBS20'!B8:AE8)</f>
+        <v>283.358</v>
+      </c>
+      <c r="N12" s="13">
+        <f>AVERAGE('tBS20'!B8:AE8)</f>
+        <v>5.7893233333333328E-2</v>
+      </c>
+      <c r="O12" s="3">
         <f>MIN('fBS20'!B8:AE8)</f>
         <v>199.85499999999999</v>
       </c>
-      <c r="J12" s="28">
-        <f>AVERAGE('fBS20'!B8:AE8)</f>
-        <v>279.02553333333333</v>
-      </c>
-      <c r="K12" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B8:AE8)</f>
-        <v>31.834497980161292</v>
-      </c>
-      <c r="L12" s="28">
-        <f>MAX('fBS20'!B8:AE8) - MIN('fBS20'!B8:AE8)</f>
-        <v>121.91800000000003</v>
-      </c>
-      <c r="M12" s="28">
-        <f>MEDIAN('fBS20'!B8:AE8)</f>
-        <v>283.358</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12">
+      <c r="P12" s="21"/>
+      <c r="Q12">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="21">
+        <f>AVERAGE('fBS30'!B8:AE8)</f>
+        <v>460.59089999999992</v>
+      </c>
+      <c r="S12" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B8:AE8)</f>
+        <v>32.394395595894878</v>
+      </c>
+      <c r="T12" s="21">
+        <f>MAX('fBS30'!B8:AE8) - MIN('fBS30'!B8:AE8)</f>
+        <v>139.24299999999999</v>
+      </c>
+      <c r="U12" s="21">
+        <f>MEDIAN('fBS30'!B8:AE8)</f>
+        <v>467.33350000000002</v>
+      </c>
+      <c r="V12" s="13">
+        <f>AVERAGE('tBS30'!B8:AE8)</f>
+        <v>8.1582866666666684E-2</v>
+      </c>
+      <c r="W12" s="3">
         <f>MIN('fBS30'!B8:AE8)</f>
         <v>371.548</v>
       </c>
-      <c r="Q12" s="28">
-        <f>AVERAGE('fBS30'!B8:AE8)</f>
-        <v>460.59089999999992</v>
-      </c>
-      <c r="R12" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B8:AE8)</f>
-        <v>32.394395595894878</v>
-      </c>
-      <c r="S12" s="28">
-        <f>MAX('fBS30'!B8:AE8) - MIN('fBS30'!B8:AE8)</f>
-        <v>139.24299999999999</v>
-      </c>
-      <c r="T12" s="28">
-        <f>MEDIAN('fBS30'!B8:AE8)</f>
-        <v>467.33350000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="21">
+        <f>AVERAGE('fBS10'!B9:AE9)</f>
+        <v>152.41386666666665</v>
+      </c>
+      <c r="C13" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B9:AE9)</f>
+        <v>11.326248695643036</v>
+      </c>
+      <c r="D13" s="21">
+        <f>MAX('fBS10'!B9:AE9) - MIN('fBS10'!B9:AE9)</f>
+        <v>41.256999999999977</v>
+      </c>
+      <c r="E13" s="21">
+        <f>MEDIAN('fBS10'!B9:AE9)</f>
+        <v>154.07600000000002</v>
+      </c>
+      <c r="F13" s="13">
+        <f>AVERAGE('tBS10'!B9:AE9)</f>
+        <v>0.10663723333333333</v>
+      </c>
+      <c r="G13" s="3">
         <f>MIN('fBS10'!B9:AE9)</f>
         <v>130.30600000000001</v>
       </c>
-      <c r="C13" s="28">
-        <f>AVERAGE('fBS10'!B9:AE9)</f>
-        <v>152.41386666666665</v>
-      </c>
-      <c r="D13" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B9:AE9)</f>
-        <v>11.326248695643036</v>
-      </c>
-      <c r="E13" s="28">
-        <f>MAX('fBS10'!B9:AE9) - MIN('fBS10'!B9:AE9)</f>
-        <v>41.256999999999977</v>
-      </c>
-      <c r="F13" s="28">
-        <f>MEDIAN('fBS10'!B9:AE9)</f>
-        <v>154.07600000000002</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13">
+      <c r="H13" s="21"/>
+      <c r="I13">
         <v>9</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="21">
+        <f>AVERAGE('fBS20'!B9:AE9)</f>
+        <v>347.02699999999999</v>
+      </c>
+      <c r="K13" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B9:AE9)</f>
+        <v>11.794804983551018</v>
+      </c>
+      <c r="L13" s="21">
+        <f>MAX('fBS20'!B9:AE9) - MIN('fBS20'!B9:AE9)</f>
+        <v>46.771999999999991</v>
+      </c>
+      <c r="M13" s="21">
+        <f>MEDIAN('fBS20'!B9:AE9)</f>
+        <v>350.46799999999996</v>
+      </c>
+      <c r="N13" s="13">
+        <f>AVERAGE('tBS20'!B9:AE9)</f>
+        <v>0.11622303333333335</v>
+      </c>
+      <c r="O13" s="3">
         <f>MIN('fBS20'!B9:AE9)</f>
         <v>317.32100000000003</v>
       </c>
-      <c r="J13" s="28">
-        <f>AVERAGE('fBS20'!B9:AE9)</f>
-        <v>347.02699999999999</v>
-      </c>
-      <c r="K13" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B9:AE9)</f>
-        <v>11.794804983551018</v>
-      </c>
-      <c r="L13" s="28">
-        <f>MAX('fBS20'!B9:AE9) - MIN('fBS20'!B9:AE9)</f>
-        <v>46.771999999999991</v>
-      </c>
-      <c r="M13" s="28">
-        <f>MEDIAN('fBS20'!B9:AE9)</f>
-        <v>350.46799999999996</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13">
+      <c r="P13" s="21"/>
+      <c r="Q13">
         <v>9</v>
       </c>
-      <c r="P13" s="3">
+      <c r="R13" s="21">
+        <f>AVERAGE('fBS30'!B9:AE9)</f>
+        <v>541.20563333333337</v>
+      </c>
+      <c r="S13" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B9:AE9)</f>
+        <v>12.853515699302751</v>
+      </c>
+      <c r="T13" s="21">
+        <f>MAX('fBS30'!B9:AE9) - MIN('fBS30'!B9:AE9)</f>
+        <v>62.853000000000009</v>
+      </c>
+      <c r="U13" s="21">
+        <f>MEDIAN('fBS30'!B9:AE9)</f>
+        <v>543.50400000000002</v>
+      </c>
+      <c r="V13" s="13">
+        <f>AVERAGE('tBS30'!B9:AE9)</f>
+        <v>0.17527666666666666</v>
+      </c>
+      <c r="W13" s="3">
         <f>MIN('fBS30'!B9:AE9)</f>
         <v>503.79</v>
       </c>
-      <c r="Q13" s="28">
-        <f>AVERAGE('fBS30'!B9:AE9)</f>
-        <v>541.20563333333337</v>
-      </c>
-      <c r="R13" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B9:AE9)</f>
-        <v>12.853515699302751</v>
-      </c>
-      <c r="S13" s="28">
-        <f>MAX('fBS30'!B9:AE9) - MIN('fBS30'!B9:AE9)</f>
-        <v>62.853000000000009</v>
-      </c>
-      <c r="T13" s="28">
-        <f>MEDIAN('fBS30'!B9:AE9)</f>
-        <v>543.50400000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="21">
+        <f>AVERAGE('fBS10'!B10:AE10)</f>
+        <v>-1913.6503333333333</v>
+      </c>
+      <c r="C14" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B10:AE10)</f>
+        <v>518.21095211945885</v>
+      </c>
+      <c r="D14" s="21">
+        <f>MAX('fBS10'!B10:AE10) - MIN('fBS10'!B10:AE10)</f>
+        <v>2133.5500000000002</v>
+      </c>
+      <c r="E14" s="21">
+        <f>MEDIAN('fBS10'!B10:AE10)</f>
+        <v>-1784.9449999999999</v>
+      </c>
+      <c r="F14" s="13">
+        <f>AVERAGE('tBS10'!B10:AE10)</f>
+        <v>7.1613266666666661E-2</v>
+      </c>
+      <c r="G14" s="3">
         <f>MIN('fBS10'!B10:AE10)</f>
         <v>-3274.21</v>
       </c>
-      <c r="C14" s="28">
-        <f>AVERAGE('fBS10'!B10:AE10)</f>
-        <v>-1913.6503333333333</v>
-      </c>
-      <c r="D14" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B10:AE10)</f>
-        <v>518.21095211945885</v>
-      </c>
-      <c r="E14" s="28">
-        <f>MAX('fBS10'!B10:AE10) - MIN('fBS10'!B10:AE10)</f>
-        <v>2133.5500000000002</v>
-      </c>
-      <c r="F14" s="28">
-        <f>MEDIAN('fBS10'!B10:AE10)</f>
-        <v>-1784.9449999999999</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14">
+      <c r="H14" s="21"/>
+      <c r="I14">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="21">
+        <f>AVERAGE('fBS20'!B10:AE10)</f>
+        <v>-2814.8923333333337</v>
+      </c>
+      <c r="K14" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B10:AE10)</f>
+        <v>719.53344579054976</v>
+      </c>
+      <c r="L14" s="21">
+        <f>MAX('fBS20'!B10:AE10) - MIN('fBS20'!B10:AE10)</f>
+        <v>3093.46</v>
+      </c>
+      <c r="M14" s="21">
+        <f>MEDIAN('fBS20'!B10:AE10)</f>
+        <v>-2660.6949999999997</v>
+      </c>
+      <c r="N14" s="13">
+        <f>AVERAGE('tBS20'!B10:AE10)</f>
+        <v>6.583466666666668E-2</v>
+      </c>
+      <c r="O14" s="3">
         <f>MIN('fBS20'!B10:AE10)</f>
         <v>-4725.63</v>
       </c>
-      <c r="J14" s="28">
-        <f>AVERAGE('fBS20'!B10:AE10)</f>
-        <v>-2814.8923333333337</v>
-      </c>
-      <c r="K14" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B10:AE10)</f>
-        <v>719.53344579054976</v>
-      </c>
-      <c r="L14" s="28">
-        <f>MAX('fBS20'!B10:AE10) - MIN('fBS20'!B10:AE10)</f>
-        <v>3093.46</v>
-      </c>
-      <c r="M14" s="28">
-        <f>MEDIAN('fBS20'!B10:AE10)</f>
-        <v>-2660.6949999999997</v>
-      </c>
-      <c r="N14" s="28"/>
-      <c r="O14">
+      <c r="P14" s="21"/>
+      <c r="Q14">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="21">
+        <f>AVERAGE('fBS30'!B10:AE10)</f>
+        <v>-3449.6040000000007</v>
+      </c>
+      <c r="S14" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B10:AE10)</f>
+        <v>793.65786448401536</v>
+      </c>
+      <c r="T14" s="21">
+        <f>MAX('fBS30'!B10:AE10) - MIN('fBS30'!B10:AE10)</f>
+        <v>3781.3699999999994</v>
+      </c>
+      <c r="U14" s="21">
+        <f>MEDIAN('fBS30'!B10:AE10)</f>
+        <v>-3229.5450000000001</v>
+      </c>
+      <c r="V14" s="13">
+        <f>AVERAGE('tBS30'!B10:AE10)</f>
+        <v>0.11337966666666667</v>
+      </c>
+      <c r="W14" s="3">
         <f>MIN('fBS30'!B10:AE10)</f>
         <v>-5835.73</v>
       </c>
-      <c r="Q14" s="28">
-        <f>AVERAGE('fBS30'!B10:AE10)</f>
-        <v>-3449.6040000000007</v>
-      </c>
-      <c r="R14" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B10:AE10)</f>
-        <v>793.65786448401536</v>
-      </c>
-      <c r="S14" s="28">
-        <f>MAX('fBS30'!B10:AE10) - MIN('fBS30'!B10:AE10)</f>
-        <v>3781.3699999999994</v>
-      </c>
-      <c r="T14" s="28">
-        <f>MEDIAN('fBS30'!B10:AE10)</f>
-        <v>-3229.5450000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="21">
+        <f>AVERAGE('fBS10'!B11:AE11)</f>
+        <v>-1242.2570333333331</v>
+      </c>
+      <c r="C15" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B11:AE11)</f>
+        <v>266.56240536235828</v>
+      </c>
+      <c r="D15" s="21">
+        <f>MAX('fBS10'!B11:AE11) - MIN('fBS10'!B11:AE11)</f>
+        <v>871.74200000000008</v>
+      </c>
+      <c r="E15" s="21">
+        <f>MEDIAN('fBS10'!B11:AE11)</f>
+        <v>-1175.5549999999998</v>
+      </c>
+      <c r="F15" s="13">
+        <f>AVERAGE('tBS10'!B11:AE11)</f>
+        <v>9.4477200000000011E-2</v>
+      </c>
+      <c r="G15" s="3">
         <f>MIN('fBS10'!B11:AE11)</f>
         <v>-1729.14</v>
       </c>
-      <c r="C15" s="28">
-        <f>AVERAGE('fBS10'!B11:AE11)</f>
-        <v>-1242.2570333333331</v>
-      </c>
-      <c r="D15" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B11:AE11)</f>
-        <v>266.56240536235828</v>
-      </c>
-      <c r="E15" s="28">
-        <f>MAX('fBS10'!B11:AE11) - MIN('fBS10'!B11:AE11)</f>
-        <v>871.74200000000008</v>
-      </c>
-      <c r="F15" s="28">
-        <f>MEDIAN('fBS10'!B11:AE11)</f>
-        <v>-1175.5549999999998</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15">
+      <c r="H15" s="21"/>
+      <c r="I15">
         <v>11</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="21">
+        <f>AVERAGE('fBS20'!B11:AE11)</f>
+        <v>-1741.4324333333341</v>
+      </c>
+      <c r="K15" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B11:AE11)</f>
+        <v>468.2102980396474</v>
+      </c>
+      <c r="L15" s="21">
+        <f>MAX('fBS20'!B11:AE11) - MIN('fBS20'!B11:AE11)</f>
+        <v>2349.4969999999998</v>
+      </c>
+      <c r="M15" s="21">
+        <f>MEDIAN('fBS20'!B11:AE11)</f>
+        <v>-1670.7350000000001</v>
+      </c>
+      <c r="N15" s="13">
+        <f>AVERAGE('tBS20'!B11:AE11)</f>
+        <v>0.11286260000000001</v>
+      </c>
+      <c r="O15" s="3">
         <f>MIN('fBS20'!B11:AE11)</f>
         <v>-2949.56</v>
       </c>
-      <c r="J15" s="28">
-        <f>AVERAGE('fBS20'!B11:AE11)</f>
-        <v>-1741.4324333333341</v>
-      </c>
-      <c r="K15" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B11:AE11)</f>
-        <v>468.2102980396474</v>
-      </c>
-      <c r="L15" s="28">
-        <f>MAX('fBS20'!B11:AE11) - MIN('fBS20'!B11:AE11)</f>
-        <v>2349.4969999999998</v>
-      </c>
-      <c r="M15" s="28">
-        <f>MEDIAN('fBS20'!B11:AE11)</f>
-        <v>-1670.7350000000001</v>
-      </c>
-      <c r="N15" s="28"/>
-      <c r="O15">
+      <c r="P15" s="21"/>
+      <c r="Q15">
         <v>11</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="21">
+        <f>AVERAGE('fBS30'!B11:AE11)</f>
+        <v>-2231.8516666666669</v>
+      </c>
+      <c r="S15" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B11:AE11)</f>
+        <v>569.79479073951393</v>
+      </c>
+      <c r="T15" s="21">
+        <f>MAX('fBS30'!B11:AE11) - MIN('fBS30'!B11:AE11)</f>
+        <v>2746.48</v>
+      </c>
+      <c r="U15" s="21">
+        <f>MEDIAN('fBS30'!B11:AE11)</f>
+        <v>-2228.94</v>
+      </c>
+      <c r="V15" s="13">
+        <f>AVERAGE('tBS30'!B11:AE11)</f>
+        <v>0.18101506666666672</v>
+      </c>
+      <c r="W15" s="3">
         <f>MIN('fBS30'!B11:AE11)</f>
         <v>-4036.98</v>
       </c>
-      <c r="Q15" s="28">
-        <f>AVERAGE('fBS30'!B11:AE11)</f>
-        <v>-2231.8516666666669</v>
-      </c>
-      <c r="R15" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B11:AE11)</f>
-        <v>569.79479073951393</v>
-      </c>
-      <c r="S15" s="28">
-        <f>MAX('fBS30'!B11:AE11) - MIN('fBS30'!B11:AE11)</f>
-        <v>2746.48</v>
-      </c>
-      <c r="T15" s="28">
-        <f>MEDIAN('fBS30'!B11:AE11)</f>
-        <v>-2228.94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="21">
+        <f>AVERAGE('fBS10'!B12:AE12)</f>
+        <v>3.9883536666666668</v>
+      </c>
+      <c r="C16" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B12:AE12)</f>
+        <v>0.18719471793622336</v>
+      </c>
+      <c r="D16" s="21">
+        <f>MAX('fBS10'!B12:AE12) - MIN('fBS10'!B12:AE12)</f>
+        <v>0.79247000000000023</v>
+      </c>
+      <c r="E16" s="21">
+        <f>MEDIAN('fBS10'!B12:AE12)</f>
+        <v>4.017385</v>
+      </c>
+      <c r="F16" s="13">
+        <f>AVERAGE('tBS10'!B12:AE12)</f>
+        <v>3.9281433333333324E-2</v>
+      </c>
+      <c r="G16" s="3">
         <f>MIN('fBS10'!B12:AE12)</f>
         <v>3.5035599999999998</v>
       </c>
-      <c r="C16" s="28">
-        <f>AVERAGE('fBS10'!B12:AE12)</f>
-        <v>3.9883536666666668</v>
-      </c>
-      <c r="D16" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B12:AE12)</f>
-        <v>0.18719471793622336</v>
-      </c>
-      <c r="E16" s="28">
-        <f>MAX('fBS10'!B12:AE12) - MIN('fBS10'!B12:AE12)</f>
-        <v>0.79247000000000023</v>
-      </c>
-      <c r="F16" s="28">
-        <f>MEDIAN('fBS10'!B12:AE12)</f>
-        <v>4.017385</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16">
+      <c r="H16" s="21"/>
+      <c r="I16">
         <v>12</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="21">
+        <f>AVERAGE('fBS20'!B12:AE12)</f>
+        <v>8.7340186666666675</v>
+      </c>
+      <c r="K16" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B12:AE12)</f>
+        <v>0.20979052180263591</v>
+      </c>
+      <c r="L16" s="21">
+        <f>MAX('fBS20'!B12:AE12) - MIN('fBS20'!B12:AE12)</f>
+        <v>0.92844999999999978</v>
+      </c>
+      <c r="M16" s="21">
+        <f>MEDIAN('fBS20'!B12:AE12)</f>
+        <v>8.7299150000000001</v>
+      </c>
+      <c r="N16" s="13">
+        <f>AVERAGE('tBS20'!B12:AE12)</f>
+        <v>4.6602500000000012E-2</v>
+      </c>
+      <c r="O16" s="3">
         <f>MIN('fBS20'!B12:AE12)</f>
         <v>8.1519600000000008</v>
       </c>
-      <c r="J16" s="28">
-        <f>AVERAGE('fBS20'!B12:AE12)</f>
-        <v>8.7340186666666675</v>
-      </c>
-      <c r="K16" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B12:AE12)</f>
-        <v>0.20979052180263591</v>
-      </c>
-      <c r="L16" s="28">
-        <f>MAX('fBS20'!B12:AE12) - MIN('fBS20'!B12:AE12)</f>
-        <v>0.92844999999999978</v>
-      </c>
-      <c r="M16" s="28">
-        <f>MEDIAN('fBS20'!B12:AE12)</f>
-        <v>8.7299150000000001</v>
-      </c>
-      <c r="N16" s="28"/>
-      <c r="O16">
+      <c r="P16" s="21"/>
+      <c r="Q16">
         <v>12</v>
       </c>
-      <c r="P16" s="3">
+      <c r="R16" s="21">
+        <f>AVERAGE('fBS30'!B12:AE12)</f>
+        <v>13.657666666666666</v>
+      </c>
+      <c r="S16" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B12:AE12)</f>
+        <v>0.2056542346323611</v>
+      </c>
+      <c r="T16" s="21">
+        <f>MAX('fBS30'!B12:AE12) - MIN('fBS30'!B12:AE12)</f>
+        <v>0.77280000000000015</v>
+      </c>
+      <c r="U16" s="21">
+        <f>MEDIAN('fBS30'!B12:AE12)</f>
+        <v>13.658250000000001</v>
+      </c>
+      <c r="V16" s="13">
+        <f>AVERAGE('tBS30'!B12:AE12)</f>
+        <v>5.9692566666666669E-2</v>
+      </c>
+      <c r="W16" s="3">
         <f>MIN('fBS30'!B12:AE12)</f>
         <v>13.274699999999999</v>
       </c>
-      <c r="Q16" s="28">
-        <f>AVERAGE('fBS30'!B12:AE12)</f>
-        <v>13.657666666666666</v>
-      </c>
-      <c r="R16" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B12:AE12)</f>
-        <v>0.2056542346323611</v>
-      </c>
-      <c r="S16" s="28">
-        <f>MAX('fBS30'!B12:AE12) - MIN('fBS30'!B12:AE12)</f>
-        <v>0.77280000000000015</v>
-      </c>
-      <c r="T16" s="28">
-        <f>MEDIAN('fBS30'!B12:AE12)</f>
-        <v>13.658250000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="21">
+        <f>AVERAGE('fBS10'!B13:AE13)</f>
+        <v>-2.8205479999999996</v>
+      </c>
+      <c r="C17" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B13:AE13)</f>
+        <v>0.41088406017919099</v>
+      </c>
+      <c r="D17" s="21">
+        <f>MAX('fBS10'!B13:AE13) - MIN('fBS10'!B13:AE13)</f>
+        <v>1.73664</v>
+      </c>
+      <c r="E17" s="21">
+        <f>MEDIAN('fBS10'!B13:AE13)</f>
+        <v>-2.721765</v>
+      </c>
+      <c r="F17" s="13">
+        <f>AVERAGE('tBS10'!B13:AE13)</f>
+        <v>7.8948466666666675E-2</v>
+      </c>
+      <c r="G17" s="3">
         <f>MIN('fBS10'!B13:AE13)</f>
         <v>-3.6514199999999999</v>
       </c>
-      <c r="C17" s="28">
-        <f>AVERAGE('fBS10'!B13:AE13)</f>
-        <v>-2.8205479999999996</v>
-      </c>
-      <c r="D17" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B13:AE13)</f>
-        <v>0.41088406017919099</v>
-      </c>
-      <c r="E17" s="28">
-        <f>MAX('fBS10'!B13:AE13) - MIN('fBS10'!B13:AE13)</f>
-        <v>1.73664</v>
-      </c>
-      <c r="F17" s="28">
-        <f>MEDIAN('fBS10'!B13:AE13)</f>
-        <v>-2.721765</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17">
+      <c r="H17" s="21"/>
+      <c r="I17">
         <v>13</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="21">
+        <f>AVERAGE('fBS20'!B13:AE13)</f>
+        <v>-4.4102383333333339</v>
+      </c>
+      <c r="K17" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B13:AE13)</f>
+        <v>0.68833765885202713</v>
+      </c>
+      <c r="L17" s="21">
+        <f>MAX('fBS20'!B13:AE13) - MIN('fBS20'!B13:AE13)</f>
+        <v>3.3757899999999998</v>
+      </c>
+      <c r="M17" s="21">
+        <f>MEDIAN('fBS20'!B13:AE13)</f>
+        <v>-4.3490000000000002</v>
+      </c>
+      <c r="N17" s="13">
+        <f>AVERAGE('tBS20'!B13:AE13)</f>
+        <v>9.1985933333333311E-2</v>
+      </c>
+      <c r="O17" s="3">
         <f>MIN('fBS20'!B13:AE13)</f>
         <v>-6.6079499999999998</v>
       </c>
-      <c r="J17" s="28">
-        <f>AVERAGE('fBS20'!B13:AE13)</f>
-        <v>-4.4102383333333339</v>
-      </c>
-      <c r="K17" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B13:AE13)</f>
-        <v>0.68833765885202713</v>
-      </c>
-      <c r="L17" s="28">
-        <f>MAX('fBS20'!B13:AE13) - MIN('fBS20'!B13:AE13)</f>
-        <v>3.3757899999999998</v>
-      </c>
-      <c r="M17" s="28">
-        <f>MEDIAN('fBS20'!B13:AE13)</f>
-        <v>-4.3490000000000002</v>
-      </c>
-      <c r="N17" s="28"/>
-      <c r="O17">
+      <c r="P17" s="21"/>
+      <c r="Q17">
         <v>13</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="21">
+        <f>AVERAGE('fBS30'!B13:AE13)</f>
+        <v>-6.1286476666666658</v>
+      </c>
+      <c r="S17" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B13:AE13)</f>
+        <v>0.7001188075257061</v>
+      </c>
+      <c r="T17" s="21">
+        <f>MAX('fBS30'!B13:AE13) - MIN('fBS30'!B13:AE13)</f>
+        <v>3.2605700000000004</v>
+      </c>
+      <c r="U17" s="21">
+        <f>MEDIAN('fBS30'!B13:AE13)</f>
+        <v>-5.9487950000000005</v>
+      </c>
+      <c r="V17" s="13">
+        <f>AVERAGE('tBS30'!B13:AE13)</f>
+        <v>0.11699216666666663</v>
+      </c>
+      <c r="W17" s="3">
         <f>MIN('fBS30'!B13:AE13)</f>
         <v>-8.2320600000000006</v>
       </c>
-      <c r="Q17" s="28">
-        <f>AVERAGE('fBS30'!B13:AE13)</f>
-        <v>-6.1286476666666658</v>
-      </c>
-      <c r="R17" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B13:AE13)</f>
-        <v>0.7001188075257061</v>
-      </c>
-      <c r="S17" s="28">
-        <f>MAX('fBS30'!B13:AE13) - MIN('fBS30'!B13:AE13)</f>
-        <v>3.2605700000000004</v>
-      </c>
-      <c r="T17" s="28">
-        <f>MEDIAN('fBS30'!B13:AE13)</f>
-        <v>-5.9487950000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="21">
+        <f>AVERAGE('fBS10'!B14:AE14)</f>
+        <v>-0.35666736733333326</v>
+      </c>
+      <c r="C18" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B14:AE14)</f>
+        <v>0.23486457145546955</v>
+      </c>
+      <c r="D18" s="21">
+        <f>MAX('fBS10'!B14:AE14) - MIN('fBS10'!B14:AE14)</f>
+        <v>0.84066428000000004</v>
+      </c>
+      <c r="E18" s="21">
+        <f>MEDIAN('fBS10'!B14:AE14)</f>
+        <v>-0.29509249999999998</v>
+      </c>
+      <c r="F18" s="13">
+        <f>AVERAGE('tBS10'!B14:AE14)</f>
+        <v>5.8922999999999996E-2</v>
+      </c>
+      <c r="G18" s="3">
         <f>MIN('fBS10'!B14:AE14)</f>
         <v>-0.84826699999999999</v>
       </c>
-      <c r="C18" s="28">
-        <f>AVERAGE('fBS10'!B14:AE14)</f>
-        <v>-0.35666736733333326</v>
-      </c>
-      <c r="D18" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B14:AE14)</f>
-        <v>0.23486457145546955</v>
-      </c>
-      <c r="E18" s="28">
-        <f>MAX('fBS10'!B14:AE14) - MIN('fBS10'!B14:AE14)</f>
-        <v>0.84066428000000004</v>
-      </c>
-      <c r="F18" s="28">
-        <f>MEDIAN('fBS10'!B14:AE14)</f>
-        <v>-0.29509249999999998</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18">
+      <c r="H18" s="21"/>
+      <c r="I18">
         <v>14</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="21">
+        <f>AVERAGE('fBS20'!B14:AE14)</f>
+        <v>-0.49321006666666667</v>
+      </c>
+      <c r="K18" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B14:AE14)</f>
+        <v>0.23341268820423811</v>
+      </c>
+      <c r="L18" s="21">
+        <f>MAX('fBS20'!B14:AE14) - MIN('fBS20'!B14:AE14)</f>
+        <v>0.845248</v>
+      </c>
+      <c r="M18" s="21">
+        <f>MEDIAN('fBS20'!B14:AE14)</f>
+        <v>-0.50675150000000002</v>
+      </c>
+      <c r="N18" s="13">
+        <f>AVERAGE('tBS20'!B14:AE14)</f>
+        <v>7.5973999999999986E-2</v>
+      </c>
+      <c r="O18" s="3">
         <f>MIN('fBS20'!B14:AE14)</f>
         <v>-0.91049000000000002</v>
       </c>
-      <c r="J18" s="28">
-        <f>AVERAGE('fBS20'!B14:AE14)</f>
-        <v>-0.49321006666666667</v>
-      </c>
-      <c r="K18" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B14:AE14)</f>
-        <v>0.23341268820423811</v>
-      </c>
-      <c r="L18" s="28">
-        <f>MAX('fBS20'!B14:AE14) - MIN('fBS20'!B14:AE14)</f>
-        <v>0.845248</v>
-      </c>
-      <c r="M18" s="28">
-        <f>MEDIAN('fBS20'!B14:AE14)</f>
-        <v>-0.50675150000000002</v>
-      </c>
-      <c r="N18" s="28"/>
-      <c r="O18">
+      <c r="P18" s="21"/>
+      <c r="Q18">
         <v>14</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="21">
+        <f>AVERAGE('fBS30'!B14:AE14)</f>
+        <v>-0.57288942666666676</v>
+      </c>
+      <c r="S18" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B14:AE14)</f>
+        <v>0.3318794259227878</v>
+      </c>
+      <c r="T18" s="21">
+        <f>MAX('fBS30'!B14:AE14) - MIN('fBS30'!B14:AE14)</f>
+        <v>1.6742051999999998</v>
+      </c>
+      <c r="U18" s="21">
+        <f>MEDIAN('fBS30'!B14:AE14)</f>
+        <v>-0.61764149999999995</v>
+      </c>
+      <c r="V18" s="13">
+        <f>AVERAGE('tBS30'!B14:AE14)</f>
+        <v>9.341003333333335E-2</v>
+      </c>
+      <c r="W18" s="3">
         <f>MIN('fBS30'!B14:AE14)</f>
         <v>-1.7619899999999999</v>
       </c>
-      <c r="Q18" s="28">
-        <f>AVERAGE('fBS30'!B14:AE14)</f>
-        <v>-0.57288942666666676</v>
-      </c>
-      <c r="R18" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B14:AE14)</f>
-        <v>0.3318794259227878</v>
-      </c>
-      <c r="S18" s="28">
-        <f>MAX('fBS30'!B14:AE14) - MIN('fBS30'!B14:AE14)</f>
-        <v>1.6742051999999998</v>
-      </c>
-      <c r="T18" s="28">
-        <f>MEDIAN('fBS30'!B14:AE14)</f>
-        <v>-0.61764149999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="1">
+        <f>AVERAGE('fBS10'!B15:AE15)</f>
+        <v>246675187.33333334</v>
+      </c>
+      <c r="C19" s="1">
+        <f>_xlfn.STDEV.P('fBS10'!B15:AE15)</f>
+        <v>127247126.99367464</v>
+      </c>
+      <c r="D19" s="1">
+        <f>MAX('fBS10'!B15:AE15) - MIN('fBS10'!B15:AE15)</f>
+        <v>590408880</v>
+      </c>
+      <c r="E19" s="1">
+        <f>MEDIAN('fBS10'!B15:AE15)</f>
+        <v>247580500</v>
+      </c>
+      <c r="F19" s="13">
+        <f>AVERAGE('tBS10'!B15:AE15)</f>
+        <v>1.7940699999999997E-2</v>
+      </c>
+      <c r="G19" s="30">
         <f>MIN('fBS10'!B15:AE15)</f>
         <v>9555120</v>
       </c>
-      <c r="C19" s="1">
-        <f>AVERAGE('fBS10'!B15:AE15)</f>
-        <v>246675187.33333334</v>
-      </c>
-      <c r="D19" s="1">
-        <f>_xlfn.STDEV.P('fBS10'!B15:AE15)</f>
-        <v>127247126.99367464</v>
-      </c>
-      <c r="E19" s="1">
-        <f>MAX('fBS10'!B15:AE15) - MIN('fBS10'!B15:AE15)</f>
-        <v>590408880</v>
-      </c>
-      <c r="F19" s="1">
-        <f>MEDIAN('fBS10'!B15:AE15)</f>
-        <v>247580500</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19">
+      <c r="H19" s="1"/>
+      <c r="I19">
         <v>15</v>
-      </c>
-      <c r="I19" s="35">
-        <f>MIN('fBS20'!B15:AE15)</f>
-        <v>909869000</v>
       </c>
       <c r="J19" s="1">
         <f>AVERAGE('fBS20'!B15:AE15)</f>
@@ -10589,667 +10778,794 @@
         <f>MEDIAN('fBS20'!B15:AE15)</f>
         <v>1603760000</v>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19">
+      <c r="N19" s="13">
+        <f>AVERAGE('tBS20'!B15:AE15)</f>
+        <v>1.8208566666666672E-2</v>
+      </c>
+      <c r="O19" s="30">
+        <f>MIN('fBS20'!B15:AE15)</f>
+        <v>909869000</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19">
         <v>15</v>
       </c>
-      <c r="P19" s="35">
+      <c r="R19" s="1">
+        <f>AVERAGE('fBS30'!B15:AE15)</f>
+        <v>4324032333.333333</v>
+      </c>
+      <c r="S19" s="1">
+        <f>_xlfn.STDEV.P('fBS30'!B15:AE15)</f>
+        <v>837146929.38847458</v>
+      </c>
+      <c r="T19" s="1">
+        <f>MAX('fBS30'!B15:AE15) - MIN('fBS30'!B15:AE15)</f>
+        <v>4109220000</v>
+      </c>
+      <c r="U19" s="1">
+        <f>MEDIAN('fBS30'!B15:AE15)</f>
+        <v>4423080000</v>
+      </c>
+      <c r="V19" s="13">
+        <f>AVERAGE('tBS30'!B15:AE15)</f>
+        <v>2.510239999999999E-2</v>
+      </c>
+      <c r="W19" s="30">
         <f>MIN('fBS30'!B15:AE15)</f>
         <v>2740910000</v>
       </c>
-      <c r="Q19" s="1">
-        <f>AVERAGE('fBS30'!B15:AE15)</f>
-        <v>4324032333.333333</v>
-      </c>
-      <c r="R19" s="1">
-        <f>_xlfn.STDEV.P('fBS30'!B15:AE15)</f>
-        <v>837146929.38847458</v>
-      </c>
-      <c r="S19" s="1">
-        <f>MAX('fBS30'!B15:AE15) - MIN('fBS30'!B15:AE15)</f>
-        <v>4109220000</v>
-      </c>
-      <c r="T19" s="1">
-        <f>MEDIAN('fBS30'!B15:AE15)</f>
-        <v>4423080000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="21">
+        <f>AVERAGE('fBS10'!B16:AE16)</f>
+        <v>52.173863333333323</v>
+      </c>
+      <c r="C20" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B16:AE16)</f>
+        <v>18.414549570009118</v>
+      </c>
+      <c r="D20" s="21">
+        <f>MAX('fBS10'!B16:AE16) - MIN('fBS10'!B16:AE16)</f>
+        <v>64.811899999999994</v>
+      </c>
+      <c r="E20" s="21">
+        <f>MEDIAN('fBS10'!B16:AE16)</f>
+        <v>55.059849999999997</v>
+      </c>
+      <c r="F20" s="13">
+        <f>AVERAGE('tBS10'!B16:AE16)</f>
+        <v>4.0761433333333333E-2</v>
+      </c>
+      <c r="G20" s="3">
         <f>MIN('fBS10'!B16:AE16)</f>
         <v>20.6281</v>
       </c>
-      <c r="C20" s="28">
-        <f>AVERAGE('fBS10'!B16:AE16)</f>
-        <v>52.173863333333323</v>
-      </c>
-      <c r="D20" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B16:AE16)</f>
-        <v>18.414549570009118</v>
-      </c>
-      <c r="E20" s="28">
-        <f>MAX('fBS10'!B16:AE16) - MIN('fBS10'!B16:AE16)</f>
-        <v>64.811899999999994</v>
-      </c>
-      <c r="F20" s="28">
-        <f>MEDIAN('fBS10'!B16:AE16)</f>
-        <v>55.059849999999997</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20">
+      <c r="H20" s="21"/>
+      <c r="I20">
         <v>16</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="21">
+        <f>AVERAGE('fBS20'!B16:AE16)</f>
+        <v>146.00953333333331</v>
+      </c>
+      <c r="K20" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B16:AE16)</f>
+        <v>27.796315357415448</v>
+      </c>
+      <c r="L20" s="21">
+        <f>MAX('fBS20'!B16:AE16) - MIN('fBS20'!B16:AE16)</f>
+        <v>93.333999999999989</v>
+      </c>
+      <c r="M20" s="21">
+        <f>MEDIAN('fBS20'!B16:AE16)</f>
+        <v>149.22200000000001</v>
+      </c>
+      <c r="N20" s="13">
+        <f>AVERAGE('tBS20'!B16:AE16)</f>
+        <v>4.0491433333333333E-2</v>
+      </c>
+      <c r="O20" s="3">
         <f>MIN('fBS20'!B16:AE16)</f>
         <v>103.33</v>
       </c>
-      <c r="J20" s="28">
-        <f>AVERAGE('fBS20'!B16:AE16)</f>
-        <v>146.00953333333331</v>
-      </c>
-      <c r="K20" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B16:AE16)</f>
-        <v>27.796315357415448</v>
-      </c>
-      <c r="L20" s="28">
-        <f>MAX('fBS20'!B16:AE16) - MIN('fBS20'!B16:AE16)</f>
-        <v>93.333999999999989</v>
-      </c>
-      <c r="M20" s="28">
-        <f>MEDIAN('fBS20'!B16:AE16)</f>
-        <v>149.22200000000001</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20">
+      <c r="P20" s="21"/>
+      <c r="Q20">
         <v>16</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="21">
+        <f>AVERAGE('fBS30'!B16:AE16)</f>
+        <v>258.73506666666674</v>
+      </c>
+      <c r="S20" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B16:AE16)</f>
+        <v>37.284348698377535</v>
+      </c>
+      <c r="T20" s="21">
+        <f>MAX('fBS30'!B16:AE16) - MIN('fBS30'!B16:AE16)</f>
+        <v>184.22800000000004</v>
+      </c>
+      <c r="U20" s="21">
+        <f>MEDIAN('fBS30'!B16:AE16)</f>
+        <v>257.53449999999998</v>
+      </c>
+      <c r="V20" s="13">
+        <f>AVERAGE('tBS30'!B16:AE16)</f>
+        <v>5.5390700000000008E-2</v>
+      </c>
+      <c r="W20" s="3">
         <f>MIN('fBS30'!B16:AE16)</f>
         <v>142.58099999999999</v>
       </c>
-      <c r="Q20" s="28">
-        <f>AVERAGE('fBS30'!B16:AE16)</f>
-        <v>258.73506666666674</v>
-      </c>
-      <c r="R20" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B16:AE16)</f>
-        <v>37.284348698377535</v>
-      </c>
-      <c r="S20" s="28">
-        <f>MAX('fBS30'!B16:AE16) - MIN('fBS30'!B16:AE16)</f>
-        <v>184.22800000000004</v>
-      </c>
-      <c r="T20" s="28">
-        <f>MEDIAN('fBS30'!B16:AE16)</f>
-        <v>257.53449999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="21">
+        <f>AVERAGE('fBS10'!B17:AE17)</f>
+        <v>15915.492666666667</v>
+      </c>
+      <c r="C21" s="21">
+        <f>_xlfn.STDEV.P('fBS10'!B17:AE17)</f>
+        <v>3299.2189931294638</v>
+      </c>
+      <c r="D21" s="21">
+        <f>MAX('fBS10'!B17:AE17) - MIN('fBS10'!B17:AE17)</f>
+        <v>12953.920000000002</v>
+      </c>
+      <c r="E21" s="21">
+        <f>MEDIAN('fBS10'!B17:AE17)</f>
+        <v>15373.150000000001</v>
+      </c>
+      <c r="F21" s="13">
+        <f>AVERAGE('tBS10'!B17:AE17)</f>
+        <v>1.7549433333333333E-2</v>
+      </c>
+      <c r="G21" s="3">
         <f>MIN('fBS10'!B17:AE17)</f>
         <v>8396.98</v>
       </c>
-      <c r="C21" s="28">
-        <f>AVERAGE('fBS10'!B17:AE17)</f>
-        <v>15915.492666666667</v>
-      </c>
-      <c r="D21" s="28">
-        <f>_xlfn.STDEV.P('fBS10'!B17:AE17)</f>
-        <v>3299.2189931294638</v>
-      </c>
-      <c r="E21" s="28">
-        <f>MAX('fBS10'!B17:AE17) - MIN('fBS10'!B17:AE17)</f>
-        <v>12953.920000000002</v>
-      </c>
-      <c r="F21" s="28">
-        <f>MEDIAN('fBS10'!B17:AE17)</f>
-        <v>15373.150000000001</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21">
+      <c r="H21" s="21"/>
+      <c r="I21">
         <v>17</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="21">
+        <f>AVERAGE('fBS20'!B17:AE17)</f>
+        <v>40922.223333333342</v>
+      </c>
+      <c r="K21" s="21">
+        <f>_xlfn.STDEV.P('fBS20'!B17:AE17)</f>
+        <v>5770.6206757264399</v>
+      </c>
+      <c r="L21" s="21">
+        <f>MAX('fBS20'!B17:AE17) - MIN('fBS20'!B17:AE17)</f>
+        <v>21896.1</v>
+      </c>
+      <c r="M21" s="21">
+        <f>MEDIAN('fBS20'!B17:AE17)</f>
+        <v>41484.850000000006</v>
+      </c>
+      <c r="N21" s="13">
+        <f>AVERAGE('tBS20'!B17:AE17)</f>
+        <v>1.7435133333333335E-2</v>
+      </c>
+      <c r="O21" s="3">
         <f>MIN('fBS20'!B17:AE17)</f>
         <v>29280.400000000001</v>
       </c>
-      <c r="J21" s="28">
-        <f>AVERAGE('fBS20'!B17:AE17)</f>
-        <v>40922.223333333342</v>
-      </c>
-      <c r="K21" s="28">
-        <f>_xlfn.STDEV.P('fBS20'!B17:AE17)</f>
-        <v>5770.6206757264399</v>
-      </c>
-      <c r="L21" s="28">
-        <f>MAX('fBS20'!B17:AE17) - MIN('fBS20'!B17:AE17)</f>
-        <v>21896.1</v>
-      </c>
-      <c r="M21" s="28">
-        <f>MEDIAN('fBS20'!B17:AE17)</f>
-        <v>41484.850000000006</v>
-      </c>
-      <c r="N21" s="28"/>
-      <c r="O21">
+      <c r="P21" s="21"/>
+      <c r="Q21">
         <v>17</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="21">
+        <f>AVERAGE('fBS30'!B17:AE17)</f>
+        <v>69049.45666666668</v>
+      </c>
+      <c r="S21" s="21">
+        <f>_xlfn.STDEV.P('fBS30'!B17:AE17)</f>
+        <v>8105.3170923651378</v>
+      </c>
+      <c r="T21" s="21">
+        <f>MAX('fBS30'!B17:AE17) - MIN('fBS30'!B17:AE17)</f>
+        <v>36845.400000000009</v>
+      </c>
+      <c r="U21" s="21">
+        <f>MEDIAN('fBS30'!B17:AE17)</f>
+        <v>70051.200000000012</v>
+      </c>
+      <c r="V21" s="13">
+        <f>AVERAGE('tBS30'!B17:AE17)</f>
+        <v>3.4093333333333344E-2</v>
+      </c>
+      <c r="W21" s="3">
         <f>MIN('fBS30'!B17:AE17)</f>
         <v>52813.2</v>
       </c>
-      <c r="Q21" s="28">
-        <f>AVERAGE('fBS30'!B17:AE17)</f>
-        <v>69049.45666666668</v>
-      </c>
-      <c r="R21" s="28">
-        <f>_xlfn.STDEV.P('fBS30'!B17:AE17)</f>
-        <v>8105.3170923651378</v>
-      </c>
-      <c r="S21" s="28">
-        <f>MAX('fBS30'!B17:AE17) - MIN('fBS30'!B17:AE17)</f>
-        <v>36845.400000000009</v>
-      </c>
-      <c r="T21" s="28">
-        <f>MEDIAN('fBS30'!B17:AE17)</f>
-        <v>70051.200000000012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="15">
+        <f>AVERAGE('fBS10'!B18:AE18)</f>
+        <v>174.07877000000002</v>
+      </c>
+      <c r="C22" s="15">
+        <f>_xlfn.STDEV.P('fBS10'!B18:AE18)</f>
+        <v>37.283860084770922</v>
+      </c>
+      <c r="D22" s="15">
+        <f>MAX('fBS10'!B18:AE18) - MIN('fBS10'!B18:AE18)</f>
+        <v>169.03090000000003</v>
+      </c>
+      <c r="E22" s="15">
+        <f>MEDIAN('fBS10'!B18:AE18)</f>
+        <v>181.29900000000001</v>
+      </c>
+      <c r="F22" s="15">
+        <f>AVERAGE('tBS10'!B18:AE18)</f>
+        <v>2.18637E-2</v>
+      </c>
+      <c r="G22" s="7">
         <f>MIN('fBS10'!B18:AE18)</f>
         <v>84.495099999999994</v>
       </c>
-      <c r="C22" s="20">
-        <f>AVERAGE('fBS10'!B18:AE18)</f>
-        <v>174.07877000000002</v>
-      </c>
-      <c r="D22" s="20">
-        <f>_xlfn.STDEV.P('fBS10'!B18:AE18)</f>
-        <v>37.283860084770922</v>
-      </c>
-      <c r="E22" s="20">
-        <f>MAX('fBS10'!B18:AE18) - MIN('fBS10'!B18:AE18)</f>
-        <v>169.03090000000003</v>
-      </c>
-      <c r="F22" s="20">
-        <f>MEDIAN('fBS10'!B18:AE18)</f>
-        <v>181.29900000000001</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="11">
+      <c r="H22" s="13"/>
+      <c r="I22" s="7">
         <v>18</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J22" s="15">
+        <f>AVERAGE('fBS20'!B18:AE18)</f>
+        <v>417.84516666666667</v>
+      </c>
+      <c r="K22" s="15">
+        <f>_xlfn.STDEV.P('fBS20'!B18:AE18)</f>
+        <v>48.203118484238679</v>
+      </c>
+      <c r="L22" s="15">
+        <f>MAX('fBS20'!B18:AE18) - MIN('fBS20'!B18:AE18)</f>
+        <v>195.82900000000001</v>
+      </c>
+      <c r="M22" s="15">
+        <f>MEDIAN('fBS20'!B18:AE18)</f>
+        <v>422.98350000000005</v>
+      </c>
+      <c r="N22" s="15">
+        <f>AVERAGE('tBS20'!B18:AE18)</f>
+        <v>3.7891133333333341E-2</v>
+      </c>
+      <c r="O22" s="7">
         <f>MIN('fBS20'!B18:AE18)</f>
         <v>335.12799999999999</v>
       </c>
-      <c r="J22" s="20">
-        <f>AVERAGE('fBS20'!B18:AE18)</f>
-        <v>417.84516666666667</v>
-      </c>
-      <c r="K22" s="20">
-        <f>_xlfn.STDEV.P('fBS20'!B18:AE18)</f>
-        <v>48.203118484238679</v>
-      </c>
-      <c r="L22" s="20">
-        <f>MAX('fBS20'!B18:AE18) - MIN('fBS20'!B18:AE18)</f>
-        <v>195.82900000000001</v>
-      </c>
-      <c r="M22" s="20">
-        <f>MEDIAN('fBS20'!B18:AE18)</f>
-        <v>422.98350000000005</v>
-      </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="11">
+      <c r="P22" s="13"/>
+      <c r="Q22" s="7">
         <v>18</v>
       </c>
-      <c r="P22" s="13">
+      <c r="R22" s="15">
+        <f>AVERAGE('fBS30'!B18:AE18)</f>
+        <v>675.36360000000025</v>
+      </c>
+      <c r="S22" s="15">
+        <f>_xlfn.STDEV.P('fBS30'!B18:AE18)</f>
+        <v>60.625237235879467</v>
+      </c>
+      <c r="T22" s="15">
+        <f>MAX('fBS30'!B18:AE18) - MIN('fBS30'!B18:AE18)</f>
+        <v>316.86700000000002</v>
+      </c>
+      <c r="U22" s="15">
+        <f>MEDIAN('fBS30'!B18:AE18)</f>
+        <v>673.44550000000004</v>
+      </c>
+      <c r="V22" s="15">
+        <f>AVERAGE('tBS30'!B18:AE18)</f>
+        <v>5.2203966666666678E-2</v>
+      </c>
+      <c r="W22" s="7">
         <f>MIN('fBS30'!B18:AE18)</f>
         <v>472.86799999999999</v>
       </c>
-      <c r="Q22" s="20">
-        <f>AVERAGE('fBS30'!B18:AE18)</f>
-        <v>675.36360000000025</v>
-      </c>
-      <c r="R22" s="20">
-        <f>_xlfn.STDEV.P('fBS30'!B18:AE18)</f>
-        <v>60.625237235879467</v>
-      </c>
-      <c r="S22" s="20">
-        <f>MAX('fBS30'!B18:AE18) - MIN('fBS30'!B18:AE18)</f>
-        <v>316.86700000000002</v>
-      </c>
-      <c r="T22" s="20">
-        <f>MEDIAN('fBS30'!B18:AE18)</f>
-        <v>673.44550000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A3:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="13" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="33" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="33" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="28"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="K4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="L4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="M4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="N4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="R4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="21">
+        <f>AVERAGE('fLS10'!B1:AE1)</f>
+        <v>1581.1933666666664</v>
+      </c>
+      <c r="C5" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B1:AE1)</f>
+        <v>330.47922230214789</v>
+      </c>
+      <c r="D5" s="21">
+        <f>MAX('fLS10'!B1:AE1) - MIN('fLS10'!B1:AE1)</f>
+        <v>1207.9389999999999</v>
+      </c>
+      <c r="E5" s="21">
+        <f>MEDIAN('fLS10'!B1:AE1)</f>
+        <v>1656.345</v>
+      </c>
+      <c r="F5" s="11">
+        <f>AVERAGE('tLS10'!B1:AE1)</f>
+        <v>13.351340666666665</v>
+      </c>
+      <c r="G5" s="5">
         <f>MIN('fLS10'!B1:AE1)</f>
         <v>904.351</v>
       </c>
-      <c r="C5" s="28">
-        <f>AVERAGE('fLS10'!B1:AE1)</f>
-        <v>1581.1933666666664</v>
-      </c>
-      <c r="D5" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B1:AE1)</f>
-        <v>330.47922230214789</v>
-      </c>
-      <c r="E5" s="28">
-        <f>MAX('fLS10'!B1:AE1) - MIN('fLS10'!B1:AE1)</f>
-        <v>1207.9389999999999</v>
-      </c>
-      <c r="F5" s="28">
-        <f>MEDIAN('fLS10'!B1:AE1)</f>
-        <v>1656.345</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5">
+      <c r="H5" s="21"/>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="21">
+        <f>AVERAGE('fLS20'!B1:AE1)</f>
+        <v>3447.45</v>
+      </c>
+      <c r="K5" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B1:AE1)</f>
+        <v>497.14665301095948</v>
+      </c>
+      <c r="L5" s="21">
+        <f>MAX('fLS20'!B1:AE1) - MIN('fLS20'!B1:AE1)</f>
+        <v>1806.6200000000003</v>
+      </c>
+      <c r="M5" s="21">
+        <f>MEDIAN('fLS20'!B1:AE1)</f>
+        <v>3489.3850000000002</v>
+      </c>
+      <c r="N5" s="11">
+        <f>AVERAGE('tLS20'!B1:AE1)</f>
+        <v>51.477889999999995</v>
+      </c>
+      <c r="O5" s="5">
         <f>MIN('fLS20'!B1:AE1)</f>
         <v>2516.65</v>
       </c>
-      <c r="J5" s="28">
-        <f>AVERAGE('fLS20'!B1:AE1)</f>
-        <v>3447.45</v>
-      </c>
-      <c r="K5" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B1:AE1)</f>
-        <v>497.14665301095948</v>
-      </c>
-      <c r="L5" s="28">
-        <f>MAX('fLS20'!B1:AE1) - MIN('fLS20'!B1:AE1)</f>
-        <v>1806.6200000000003</v>
-      </c>
-      <c r="M5" s="28">
-        <f>MEDIAN('fLS20'!B1:AE1)</f>
-        <v>3489.3850000000002</v>
-      </c>
-      <c r="N5" s="28"/>
-      <c r="O5">
+      <c r="P5" s="21"/>
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="P5" s="5">
+      <c r="R5" s="21">
+        <f>AVERAGE('fLS30'!B1:AE1)</f>
+        <v>5134.0019999999995</v>
+      </c>
+      <c r="S5" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B1:AE1)</f>
+        <v>521.2889542368373</v>
+      </c>
+      <c r="T5" s="21">
+        <f>MAX('fLS30'!B1:AE1) - MIN('fLS30'!B1:AE1)</f>
+        <v>2144.33</v>
+      </c>
+      <c r="U5" s="21">
+        <f>MEDIAN('fLS30'!B1:AE1)</f>
+        <v>5011.1550000000007</v>
+      </c>
+      <c r="V5" s="11">
+        <f>AVERAGE('tLS30'!B1:AE1)</f>
+        <v>108.87568666666668</v>
+      </c>
+      <c r="W5" s="5">
         <f>MIN('fLS30'!B1:AE1)</f>
         <v>4044.46</v>
       </c>
-      <c r="Q5" s="28">
-        <f>AVERAGE('fLS30'!B1:AE1)</f>
-        <v>5134.0019999999995</v>
-      </c>
-      <c r="R5" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B1:AE1)</f>
-        <v>521.2889542368373</v>
-      </c>
-      <c r="S5" s="28">
-        <f>MAX('fLS30'!B1:AE1) - MIN('fLS30'!B1:AE1)</f>
-        <v>2144.33</v>
-      </c>
-      <c r="T5" s="28">
-        <f>MEDIAN('fLS30'!B1:AE1)</f>
-        <v>5011.1550000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="21">
+        <f>AVERAGE('fLS10'!B2:AE2)</f>
+        <v>2.8889303333333331E-2</v>
+      </c>
+      <c r="C6" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B2:AE2)</f>
+        <v>2.5125815306815853E-3</v>
+      </c>
+      <c r="D6" s="21">
+        <f>MAX('fLS10'!B2:AE2) - MIN('fLS10'!B2:AE2)</f>
+        <v>1.0728599999999998E-2</v>
+      </c>
+      <c r="E6" s="21">
+        <f>MEDIAN('fLS10'!B2:AE2)</f>
+        <v>3.0154300000000002E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <f>AVERAGE('tLS10'!B2:AE2)</f>
+        <v>0.12832843333333335</v>
+      </c>
+      <c r="G6" s="3">
         <f>MIN('fLS10'!B2:AE2)</f>
         <v>1.9521400000000001E-2</v>
       </c>
-      <c r="C6" s="28">
-        <f>AVERAGE('fLS10'!B2:AE2)</f>
-        <v>2.8889303333333331E-2</v>
-      </c>
-      <c r="D6" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B2:AE2)</f>
-        <v>2.5125815306815853E-3</v>
-      </c>
-      <c r="E6" s="28">
-        <f>MAX('fLS10'!B2:AE2) - MIN('fLS10'!B2:AE2)</f>
-        <v>1.0728599999999998E-2</v>
-      </c>
-      <c r="F6" s="28">
-        <f>MEDIAN('fLS10'!B2:AE2)</f>
-        <v>3.0154300000000002E-2</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6">
+      <c r="H6" s="21"/>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="21">
+        <f>AVERAGE('fLS20'!B2:AE2)</f>
+        <v>5.9207686666666662E-2</v>
+      </c>
+      <c r="K6" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B2:AE2)</f>
+        <v>3.1136181902232151E-3</v>
+      </c>
+      <c r="L6" s="21">
+        <f>MAX('fLS20'!B2:AE2) - MIN('fLS20'!B2:AE2)</f>
+        <v>1.1398999999999999E-2</v>
+      </c>
+      <c r="M6" s="21">
+        <f>MEDIAN('fLS20'!B2:AE2)</f>
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="N6" s="13">
+        <f>AVERAGE('tLS20'!B2:AE2)</f>
+        <v>0.38460393333333326</v>
+      </c>
+      <c r="O6" s="3">
         <f>MIN('fLS20'!B2:AE2)</f>
         <v>4.9100999999999999E-2</v>
       </c>
-      <c r="J6" s="28">
-        <f>AVERAGE('fLS20'!B2:AE2)</f>
-        <v>5.9207686666666662E-2</v>
-      </c>
-      <c r="K6" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B2:AE2)</f>
-        <v>3.1136181902232151E-3</v>
-      </c>
-      <c r="L6" s="28">
-        <f>MAX('fLS20'!B2:AE2) - MIN('fLS20'!B2:AE2)</f>
-        <v>1.1398999999999999E-2</v>
-      </c>
-      <c r="M6" s="28">
-        <f>MEDIAN('fLS20'!B2:AE2)</f>
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="N6" s="28"/>
-      <c r="O6">
+      <c r="P6" s="21"/>
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="R6" s="21">
+        <f>AVERAGE('fLS30'!B2:AE2)</f>
+        <v>8.9821796666666634E-2</v>
+      </c>
+      <c r="S6" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B2:AE2)</f>
+        <v>2.0416042980106481E-3</v>
+      </c>
+      <c r="T6" s="21">
+        <f>MAX('fLS30'!B2:AE2) - MIN('fLS30'!B2:AE2)</f>
+        <v>8.916399999999991E-3</v>
+      </c>
+      <c r="U6" s="21">
+        <f>MEDIAN('fLS30'!B2:AE2)</f>
+        <v>9.0749999999999997E-2</v>
+      </c>
+      <c r="V6" s="13">
+        <f>AVERAGE('tLS30'!B2:AE2)</f>
+        <v>0.7350757</v>
+      </c>
+      <c r="W6" s="3">
         <f>MIN('fLS30'!B2:AE2)</f>
         <v>8.1833600000000006E-2</v>
       </c>
-      <c r="Q6" s="28">
-        <f>AVERAGE('fLS30'!B2:AE2)</f>
-        <v>8.9821796666666634E-2</v>
-      </c>
-      <c r="R6" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B2:AE2)</f>
-        <v>2.0416042980106481E-3</v>
-      </c>
-      <c r="S6" s="28">
-        <f>MAX('fLS30'!B2:AE2) - MIN('fLS30'!B2:AE2)</f>
-        <v>8.916399999999991E-3</v>
-      </c>
-      <c r="T6" s="28">
-        <f>MEDIAN('fLS30'!B2:AE2)</f>
-        <v>9.0749999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="1">
+        <f>AVERAGE('fLS10'!B3:AE3)</f>
+        <v>4519609666.666667</v>
+      </c>
+      <c r="C7" s="1">
+        <f>_xlfn.STDEV.P('fLS10'!B3:AE3)</f>
+        <v>2192815918.9414916</v>
+      </c>
+      <c r="D7" s="1">
+        <f>MAX('fLS10'!B3:AE3) - MIN('fLS10'!B3:AE3)</f>
+        <v>8610080000</v>
+      </c>
+      <c r="E7" s="1">
+        <f>MEDIAN('fLS10'!B3:AE3)</f>
+        <v>4301010000</v>
+      </c>
+      <c r="F7" s="13">
+        <f>AVERAGE('tLS10'!B3:AE3)</f>
+        <v>9.4729000000000011E-3</v>
+      </c>
+      <c r="G7" s="30">
         <f>MIN('fLS10'!B3:AE3)</f>
         <v>1471520000</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE('fLS10'!B3:AE3)</f>
-        <v>4519609666.666667</v>
-      </c>
-      <c r="D7" s="1">
-        <f>_xlfn.STDEV.P('fLS10'!B3:AE3)</f>
-        <v>2192815918.9414916</v>
-      </c>
-      <c r="E7" s="1">
-        <f>MAX('fLS10'!B3:AE3) - MIN('fLS10'!B3:AE3)</f>
-        <v>8610080000</v>
-      </c>
-      <c r="F7" s="1">
-        <f>MEDIAN('fLS10'!B3:AE3)</f>
-        <v>4301010000</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7">
+      <c r="H7" s="1"/>
+      <c r="I7">
         <v>3</v>
-      </c>
-      <c r="I7" s="35">
-        <f>MIN('fLS20'!B3:AE3)</f>
-        <v>8043550000</v>
       </c>
       <c r="J7" s="1">
         <f>AVERAGE('fLS20'!B3:AE3)</f>
@@ -11267,865 +11583,1009 @@
         <f>MEDIAN('fLS20'!B3:AE3)</f>
         <v>17379050000</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7">
+      <c r="N7" s="13">
+        <f>AVERAGE('tLS20'!B3:AE3)</f>
+        <v>1.7849266666666665E-2</v>
+      </c>
+      <c r="O7" s="30">
+        <f>MIN('fLS20'!B3:AE3)</f>
+        <v>8043550000</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="P7" s="35">
+      <c r="R7" s="1">
+        <f>AVERAGE('fLS30'!B3:AE3)</f>
+        <v>31510213333.333332</v>
+      </c>
+      <c r="S7" s="1">
+        <f>_xlfn.STDEV.P('fLS30'!B3:AE3)</f>
+        <v>3901389432.303452</v>
+      </c>
+      <c r="T7" s="1">
+        <f>MAX('fLS30'!B3:AE3) - MIN('fLS30'!B3:AE3)</f>
+        <v>16167300000</v>
+      </c>
+      <c r="U7" s="1">
+        <f>MEDIAN('fLS30'!B3:AE3)</f>
+        <v>31729400000</v>
+      </c>
+      <c r="V7" s="13">
+        <f>AVERAGE('tLS30'!B3:AE3)</f>
+        <v>2.7890599999999998E-2</v>
+      </c>
+      <c r="W7" s="30">
         <f>MIN('fLS30'!B3:AE3)</f>
         <v>24288700000</v>
       </c>
-      <c r="Q7" s="1">
-        <f>AVERAGE('fLS30'!B3:AE3)</f>
-        <v>31510213333.333332</v>
-      </c>
-      <c r="R7" s="1">
-        <f>_xlfn.STDEV.P('fLS30'!B3:AE3)</f>
-        <v>3901389432.303452</v>
-      </c>
-      <c r="S7" s="1">
-        <f>MAX('fLS30'!B3:AE3) - MIN('fLS30'!B3:AE3)</f>
-        <v>16167300000</v>
-      </c>
-      <c r="T7" s="1">
-        <f>MEDIAN('fLS30'!B3:AE3)</f>
-        <v>31729400000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="21">
+        <f>AVERAGE('fLS10'!B4:AE4)</f>
+        <v>142966.9</v>
+      </c>
+      <c r="C8" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B4:AE4)</f>
+        <v>29072.329213360252</v>
+      </c>
+      <c r="D8" s="21">
+        <f>MAX('fLS10'!B4:AE4) - MIN('fLS10'!B4:AE4)</f>
+        <v>91297</v>
+      </c>
+      <c r="E8" s="21">
+        <f>MEDIAN('fLS10'!B4:AE4)</f>
+        <v>136259</v>
+      </c>
+      <c r="F8" s="13">
+        <f>AVERAGE('tLS10'!B4:AE4)</f>
+        <v>2.2484099999999993E-2</v>
+      </c>
+      <c r="G8" s="3">
         <f>MIN('fLS10'!B4:AE4)</f>
         <v>100067</v>
       </c>
-      <c r="C8" s="28">
-        <f>AVERAGE('fLS10'!B4:AE4)</f>
-        <v>142966.9</v>
-      </c>
-      <c r="D8" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B4:AE4)</f>
-        <v>29072.329213360252</v>
-      </c>
-      <c r="E8" s="28">
-        <f>MAX('fLS10'!B4:AE4) - MIN('fLS10'!B4:AE4)</f>
-        <v>91297</v>
-      </c>
-      <c r="F8" s="28">
-        <f>MEDIAN('fLS10'!B4:AE4)</f>
-        <v>136259</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8">
+      <c r="H8" s="21"/>
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="21">
+        <f>AVERAGE('fLS20'!B4:AE4)</f>
+        <v>707591.8666666667</v>
+      </c>
+      <c r="K8" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B4:AE4)</f>
+        <v>106009.16693529648</v>
+      </c>
+      <c r="L8" s="21">
+        <f>MAX('fLS20'!B4:AE4) - MIN('fLS20'!B4:AE4)</f>
+        <v>502076</v>
+      </c>
+      <c r="M8" s="21">
+        <f>MEDIAN('fLS20'!B4:AE4)</f>
+        <v>708505.5</v>
+      </c>
+      <c r="N8" s="13">
+        <f>AVERAGE('tLS20'!B4:AE4)</f>
+        <v>4.6390766666666659E-2</v>
+      </c>
+      <c r="O8" s="3">
         <f>MIN('fLS20'!B4:AE4)</f>
         <v>459696</v>
       </c>
-      <c r="J8" s="28">
-        <f>AVERAGE('fLS20'!B4:AE4)</f>
-        <v>707591.8666666667</v>
-      </c>
-      <c r="K8" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B4:AE4)</f>
-        <v>106009.16693529648</v>
-      </c>
-      <c r="L8" s="28">
-        <f>MAX('fLS20'!B4:AE4) - MIN('fLS20'!B4:AE4)</f>
-        <v>502076</v>
-      </c>
-      <c r="M8" s="28">
-        <f>MEDIAN('fLS20'!B4:AE4)</f>
-        <v>708505.5</v>
-      </c>
-      <c r="N8" s="28"/>
-      <c r="O8">
+      <c r="P8" s="21"/>
+      <c r="Q8">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="21">
+        <f>AVERAGE('fLS30'!B4:AE4)</f>
+        <v>1903896</v>
+      </c>
+      <c r="S8" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B4:AE4)</f>
+        <v>227903.55145104695</v>
+      </c>
+      <c r="T8" s="21">
+        <f>MAX('fLS30'!B4:AE4) - MIN('fLS30'!B4:AE4)</f>
+        <v>880340</v>
+      </c>
+      <c r="U8" s="21">
+        <f>MEDIAN('fLS30'!B4:AE4)</f>
+        <v>1960160</v>
+      </c>
+      <c r="V8" s="13">
+        <f>AVERAGE('tLS30'!B4:AE4)</f>
+        <v>7.7132666666666669E-2</v>
+      </c>
+      <c r="W8" s="3">
         <f>MIN('fLS30'!B4:AE4)</f>
         <v>1278230</v>
       </c>
-      <c r="Q8" s="28">
-        <f>AVERAGE('fLS30'!B4:AE4)</f>
-        <v>1903896</v>
-      </c>
-      <c r="R8" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B4:AE4)</f>
-        <v>227903.55145104695</v>
-      </c>
-      <c r="S8" s="28">
-        <f>MAX('fLS30'!B4:AE4) - MIN('fLS30'!B4:AE4)</f>
-        <v>880340</v>
-      </c>
-      <c r="T8" s="28">
-        <f>MEDIAN('fLS30'!B4:AE4)</f>
-        <v>1960160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="21">
+        <f>AVERAGE('fLS10'!B5:AE5)</f>
+        <v>1.0000099999999998</v>
+      </c>
+      <c r="C9" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B5:AE5)</f>
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="D9" s="21">
+        <f>MAX('fLS10'!B5:AE5) - MIN('fLS10'!B5:AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <f>MEDIAN('fLS10'!B5:AE5)</f>
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="F9" s="13">
+        <f>AVERAGE('tLS10'!B5:AE5)</f>
+        <v>5306.7346666666663</v>
+      </c>
+      <c r="G9" s="3">
         <f>MIN('fLS10'!B5:AE5)</f>
         <v>1.0000100000000001</v>
       </c>
-      <c r="C9" s="28">
-        <f>AVERAGE('fLS10'!B5:AE5)</f>
-        <v>1.0000099999999998</v>
-      </c>
-      <c r="D9" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B5:AE5)</f>
-        <v>2.2204460492503131E-16</v>
-      </c>
-      <c r="E9" s="28">
-        <f>MAX('fLS10'!B5:AE5) - MIN('fLS10'!B5:AE5)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="28">
-        <f>MEDIAN('fLS10'!B5:AE5)</f>
-        <v>1.0000100000000001</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9">
+      <c r="H9" s="21"/>
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="21">
+        <f>AVERAGE('fLS20'!B5:AE5)</f>
+        <v>1.0000169999999995</v>
+      </c>
+      <c r="K9" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B5:AE5)</f>
+        <v>4.5825756948841094E-6</v>
+      </c>
+      <c r="L9" s="21">
+        <f>MAX('fLS20'!B5:AE5) - MIN('fLS20'!B5:AE5)</f>
+        <v>9.9999999998434674E-6</v>
+      </c>
+      <c r="M9" s="21">
+        <f>MEDIAN('fLS20'!B5:AE5)</f>
+        <v>1.0000199999999999</v>
+      </c>
+      <c r="N9" s="13">
+        <f>AVERAGE('tLS20'!B5:AE5)</f>
+        <v>20950.330000000005</v>
+      </c>
+      <c r="O9" s="3">
         <f>MIN('fLS20'!B5:AE5)</f>
         <v>1.0000100000000001</v>
       </c>
-      <c r="J9" s="28">
-        <f>AVERAGE('fLS20'!B5:AE5)</f>
-        <v>1.0000169999999995</v>
-      </c>
-      <c r="K9" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B5:AE5)</f>
-        <v>4.5825756948841094E-6</v>
-      </c>
-      <c r="L9" s="28">
-        <f>MAX('fLS20'!B5:AE5) - MIN('fLS20'!B5:AE5)</f>
-        <v>9.9999999998434674E-6</v>
-      </c>
-      <c r="M9" s="28">
-        <f>MEDIAN('fLS20'!B5:AE5)</f>
+      <c r="P9" s="21"/>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9" s="21">
+        <f>AVERAGE('fLS30'!B5:AE5)</f>
+        <v>1.0000199999999995</v>
+      </c>
+      <c r="S9" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B5:AE5)</f>
+        <v>4.4408920985006262E-16</v>
+      </c>
+      <c r="T9" s="21">
+        <f>MAX('fLS30'!B5:AE5) - MIN('fLS30'!B5:AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="21">
+        <f>MEDIAN('fLS30'!B5:AE5)</f>
         <v>1.0000199999999999</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="V9" s="13">
+        <f>AVERAGE('tLS30'!B5:AE5)</f>
+        <v>48424.05333333333</v>
+      </c>
+      <c r="W9" s="3">
         <f>MIN('fLS30'!B5:AE5)</f>
         <v>1.0000199999999999</v>
       </c>
-      <c r="Q9" s="28">
-        <f>AVERAGE('fLS30'!B5:AE5)</f>
-        <v>1.0000199999999995</v>
-      </c>
-      <c r="R9" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B5:AE5)</f>
-        <v>4.4408920985006262E-16</v>
-      </c>
-      <c r="S9" s="28">
-        <f>MAX('fLS30'!B5:AE5) - MIN('fLS30'!B5:AE5)</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="28">
-        <f>MEDIAN('fLS30'!B5:AE5)</f>
-        <v>1.0000199999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="21">
+        <f>AVERAGE('fLS10'!B6:AE6)</f>
+        <v>-8.287686666666664</v>
+      </c>
+      <c r="C10" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B6:AE6)</f>
+        <v>0.48655604485220633</v>
+      </c>
+      <c r="D10" s="21">
+        <f>MAX('fLS10'!B6:AE6) - MIN('fLS10'!B6:AE6)</f>
+        <v>1.8283399999999999</v>
+      </c>
+      <c r="E10" s="21">
+        <f>MEDIAN('fLS10'!B6:AE6)</f>
+        <v>-8.3543500000000002</v>
+      </c>
+      <c r="F10" s="13">
+        <f>AVERAGE('tLS10'!B6:AE6)</f>
+        <v>2.3012066666666664E-2</v>
+      </c>
+      <c r="G10" s="3">
         <f>MIN('fLS10'!B6:AE6)</f>
         <v>-9.2261199999999999</v>
       </c>
-      <c r="C10" s="28">
-        <f>AVERAGE('fLS10'!B6:AE6)</f>
-        <v>-8.287686666666664</v>
-      </c>
-      <c r="D10" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B6:AE6)</f>
-        <v>0.48655604485220633</v>
-      </c>
-      <c r="E10" s="28">
-        <f>MAX('fLS10'!B6:AE6) - MIN('fLS10'!B6:AE6)</f>
-        <v>1.8283399999999999</v>
-      </c>
-      <c r="F10" s="28">
-        <f>MEDIAN('fLS10'!B6:AE6)</f>
-        <v>-8.3543500000000002</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10">
+      <c r="H10" s="21"/>
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="21">
+        <f>AVERAGE('fLS20'!B6:AE6)</f>
+        <v>-16.0459</v>
+      </c>
+      <c r="K10" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B6:AE6)</f>
+        <v>0.51936121084783904</v>
+      </c>
+      <c r="L10" s="21">
+        <f>MAX('fLS20'!B6:AE6) - MIN('fLS20'!B6:AE6)</f>
+        <v>2.2340000000000018</v>
+      </c>
+      <c r="M10" s="21">
+        <f>MEDIAN('fLS20'!B6:AE6)</f>
+        <v>-15.931100000000001</v>
+      </c>
+      <c r="N10" s="13">
+        <f>AVERAGE('tLS20'!B6:AE6)</f>
+        <v>4.9946533333333334E-2</v>
+      </c>
+      <c r="O10" s="3">
         <f>MIN('fLS20'!B6:AE6)</f>
         <v>-17.440000000000001</v>
       </c>
-      <c r="J10" s="28">
-        <f>AVERAGE('fLS20'!B6:AE6)</f>
-        <v>-16.0459</v>
-      </c>
-      <c r="K10" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B6:AE6)</f>
-        <v>0.51936121084783904</v>
-      </c>
-      <c r="L10" s="28">
-        <f>MAX('fLS20'!B6:AE6) - MIN('fLS20'!B6:AE6)</f>
-        <v>2.2340000000000018</v>
-      </c>
-      <c r="M10" s="28">
-        <f>MEDIAN('fLS20'!B6:AE6)</f>
-        <v>-15.931100000000001</v>
-      </c>
-      <c r="N10" s="28"/>
-      <c r="O10">
+      <c r="P10" s="21"/>
+      <c r="Q10">
         <v>6</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="21">
+        <f>AVERAGE('fLS30'!B6:AE6)</f>
+        <v>-23.926870000000005</v>
+      </c>
+      <c r="S10" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B6:AE6)</f>
+        <v>0.73957399501334553</v>
+      </c>
+      <c r="T10" s="21">
+        <f>MAX('fLS30'!B6:AE6) - MIN('fLS30'!B6:AE6)</f>
+        <v>2.996100000000002</v>
+      </c>
+      <c r="U10" s="21">
+        <f>MEDIAN('fLS30'!B6:AE6)</f>
+        <v>-23.669650000000001</v>
+      </c>
+      <c r="V10" s="13">
+        <f>AVERAGE('tLS30'!B6:AE6)</f>
+        <v>8.3714866666666651E-2</v>
+      </c>
+      <c r="W10" s="3">
         <f>MIN('fLS30'!B6:AE6)</f>
         <v>-25.5563</v>
       </c>
-      <c r="Q10" s="28">
-        <f>AVERAGE('fLS30'!B6:AE6)</f>
-        <v>-23.926870000000005</v>
-      </c>
-      <c r="R10" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B6:AE6)</f>
-        <v>0.73957399501334553</v>
-      </c>
-      <c r="S10" s="28">
-        <f>MAX('fLS30'!B6:AE6) - MIN('fLS30'!B6:AE6)</f>
-        <v>2.996100000000002</v>
-      </c>
-      <c r="T10" s="28">
-        <f>MEDIAN('fLS30'!B6:AE6)</f>
-        <v>-23.669650000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="21">
+        <f>AVERAGE('fLS10'!B7:AE7)</f>
+        <v>9.7987806666666657</v>
+      </c>
+      <c r="C11" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B7:AE7)</f>
+        <v>1.1385147506727968</v>
+      </c>
+      <c r="D11" s="21">
+        <f>MAX('fLS10'!B7:AE7) - MIN('fLS10'!B7:AE7)</f>
+        <v>5.2575500000000002</v>
+      </c>
+      <c r="E11" s="21">
+        <f>MEDIAN('fLS10'!B7:AE7)</f>
+        <v>9.3436450000000004</v>
+      </c>
+      <c r="F11" s="13">
+        <f>AVERAGE('tLS10'!B7:AE7)</f>
+        <v>46.191646599999991</v>
+      </c>
+      <c r="G11" s="3">
         <f>MIN('fLS10'!B7:AE7)</f>
         <v>9.0669500000000003</v>
       </c>
-      <c r="C11" s="28">
-        <f>AVERAGE('fLS10'!B7:AE7)</f>
-        <v>9.7987806666666657</v>
-      </c>
-      <c r="D11" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B7:AE7)</f>
-        <v>1.1385147506727968</v>
-      </c>
-      <c r="E11" s="28">
-        <f>MAX('fLS10'!B7:AE7) - MIN('fLS10'!B7:AE7)</f>
-        <v>5.2575500000000002</v>
-      </c>
-      <c r="F11" s="28">
-        <f>MEDIAN('fLS10'!B7:AE7)</f>
-        <v>9.3436450000000004</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11">
+      <c r="H11" s="21"/>
+      <c r="I11">
         <v>7</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="21">
+        <f>AVERAGE('fLS20'!B7:AE7)</f>
+        <v>22.124469999999999</v>
+      </c>
+      <c r="K11" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B7:AE7)</f>
+        <v>3.1355749326240034</v>
+      </c>
+      <c r="L11" s="21">
+        <f>MAX('fLS20'!B7:AE7) - MIN('fLS20'!B7:AE7)</f>
+        <v>13.962100000000003</v>
+      </c>
+      <c r="M11" s="21">
+        <f>MEDIAN('fLS20'!B7:AE7)</f>
+        <v>21.007300000000001</v>
+      </c>
+      <c r="N11" s="13">
+        <f>AVERAGE('tLS20'!B7:AE7)</f>
+        <v>260.95993363333338</v>
+      </c>
+      <c r="O11" s="3">
         <f>MIN('fLS20'!B7:AE7)</f>
         <v>19.326899999999998</v>
       </c>
-      <c r="J11" s="28">
-        <f>AVERAGE('fLS20'!B7:AE7)</f>
-        <v>22.124469999999999</v>
-      </c>
-      <c r="K11" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B7:AE7)</f>
-        <v>3.1355749326240034</v>
-      </c>
-      <c r="L11" s="28">
-        <f>MAX('fLS20'!B7:AE7) - MIN('fLS20'!B7:AE7)</f>
-        <v>13.962100000000003</v>
-      </c>
-      <c r="M11" s="28">
-        <f>MEDIAN('fLS20'!B7:AE7)</f>
-        <v>21.007300000000001</v>
-      </c>
-      <c r="N11" s="28"/>
-      <c r="O11">
+      <c r="P11" s="21"/>
+      <c r="Q11">
         <v>7</v>
       </c>
-      <c r="P11" s="3">
+      <c r="R11" s="21">
+        <f>AVERAGE('fLS30'!B7:AE7)</f>
+        <v>34.578973333333337</v>
+      </c>
+      <c r="S11" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B7:AE7)</f>
+        <v>4.2557407039537427</v>
+      </c>
+      <c r="T11" s="21">
+        <f>MAX('fLS30'!B7:AE7) - MIN('fLS30'!B7:AE7)</f>
+        <v>20.058399999999995</v>
+      </c>
+      <c r="U11" s="21">
+        <f>MEDIAN('fLS30'!B7:AE7)</f>
+        <v>33.129300000000001</v>
+      </c>
+      <c r="V11" s="13">
+        <f>AVERAGE('tLS30'!B7:AE7)</f>
+        <v>607.06772599999988</v>
+      </c>
+      <c r="W11" s="3">
         <f>MIN('fLS30'!B7:AE7)</f>
         <v>30.276900000000001</v>
       </c>
-      <c r="Q11" s="28">
-        <f>AVERAGE('fLS30'!B7:AE7)</f>
-        <v>34.578973333333337</v>
-      </c>
-      <c r="R11" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B7:AE7)</f>
-        <v>4.2557407039537427</v>
-      </c>
-      <c r="S11" s="28">
-        <f>MAX('fLS30'!B7:AE7) - MIN('fLS30'!B7:AE7)</f>
-        <v>20.058399999999995</v>
-      </c>
-      <c r="T11" s="28">
-        <f>MEDIAN('fLS30'!B7:AE7)</f>
-        <v>33.129300000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="21">
+        <f>AVERAGE('fLS10'!B8:AE8)</f>
+        <v>80.582556666666676</v>
+      </c>
+      <c r="C12" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B8:AE8)</f>
+        <v>17.81540415853053</v>
+      </c>
+      <c r="D12" s="21">
+        <f>MAX('fLS10'!B8:AE8) - MIN('fLS10'!B8:AE8)</f>
+        <v>73.201400000000007</v>
+      </c>
+      <c r="E12" s="21">
+        <f>MEDIAN('fLS10'!B8:AE8)</f>
+        <v>82.252499999999998</v>
+      </c>
+      <c r="F12" s="13">
+        <f>AVERAGE('tLS10'!B8:AE8)</f>
+        <v>0.62266123333333345</v>
+      </c>
+      <c r="G12" s="3">
         <f>MIN('fLS10'!B8:AE8)</f>
         <v>37.064599999999999</v>
       </c>
-      <c r="C12" s="28">
-        <f>AVERAGE('fLS10'!B8:AE8)</f>
-        <v>80.582556666666676</v>
-      </c>
-      <c r="D12" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B8:AE8)</f>
-        <v>17.81540415853053</v>
-      </c>
-      <c r="E12" s="28">
-        <f>MAX('fLS10'!B8:AE8) - MIN('fLS10'!B8:AE8)</f>
-        <v>73.201400000000007</v>
-      </c>
-      <c r="F12" s="28">
-        <f>MEDIAN('fLS10'!B8:AE8)</f>
-        <v>82.252499999999998</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12">
+      <c r="H12" s="21"/>
+      <c r="I12">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="21">
+        <f>AVERAGE('fLS20'!B8:AE8)</f>
+        <v>213.07733333333334</v>
+      </c>
+      <c r="K12" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B8:AE8)</f>
+        <v>25.453082040404009</v>
+      </c>
+      <c r="L12" s="21">
+        <f>MAX('fLS20'!B8:AE8) - MIN('fLS20'!B8:AE8)</f>
+        <v>87.549000000000007</v>
+      </c>
+      <c r="M12" s="21">
+        <f>MEDIAN('fLS20'!B8:AE8)</f>
+        <v>220.22300000000001</v>
+      </c>
+      <c r="N12" s="13">
+        <f>AVERAGE('tLS20'!B8:AE8)</f>
+        <v>1.9135025666666665</v>
+      </c>
+      <c r="O12" s="3">
         <f>MIN('fLS20'!B8:AE8)</f>
         <v>159.215</v>
       </c>
-      <c r="J12" s="28">
-        <f>AVERAGE('fLS20'!B8:AE8)</f>
-        <v>213.07733333333334</v>
-      </c>
-      <c r="K12" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B8:AE8)</f>
-        <v>25.453082040404009</v>
-      </c>
-      <c r="L12" s="28">
-        <f>MAX('fLS20'!B8:AE8) - MIN('fLS20'!B8:AE8)</f>
-        <v>87.549000000000007</v>
-      </c>
-      <c r="M12" s="28">
-        <f>MEDIAN('fLS20'!B8:AE8)</f>
-        <v>220.22300000000001</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12">
+      <c r="P12" s="21"/>
+      <c r="Q12">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="21">
+        <f>AVERAGE('fLS30'!B8:AE8)</f>
+        <v>352.28383333333335</v>
+      </c>
+      <c r="S12" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B8:AE8)</f>
+        <v>24.905753627202063</v>
+      </c>
+      <c r="T12" s="21">
+        <f>MAX('fLS30'!B8:AE8) - MIN('fLS30'!B8:AE8)</f>
+        <v>108.65899999999999</v>
+      </c>
+      <c r="U12" s="21">
+        <f>MEDIAN('fLS30'!B8:AE8)</f>
+        <v>352.01549999999997</v>
+      </c>
+      <c r="V12" s="13">
+        <f>AVERAGE('tLS30'!B8:AE8)</f>
+        <v>3.9748173333333328</v>
+      </c>
+      <c r="W12" s="3">
         <f>MIN('fLS30'!B8:AE8)</f>
         <v>293.75400000000002</v>
       </c>
-      <c r="Q12" s="28">
-        <f>AVERAGE('fLS30'!B8:AE8)</f>
-        <v>352.28383333333335</v>
-      </c>
-      <c r="R12" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B8:AE8)</f>
-        <v>24.905753627202063</v>
-      </c>
-      <c r="S12" s="28">
-        <f>MAX('fLS30'!B8:AE8) - MIN('fLS30'!B8:AE8)</f>
-        <v>108.65899999999999</v>
-      </c>
-      <c r="T12" s="28">
-        <f>MEDIAN('fLS30'!B8:AE8)</f>
-        <v>352.01549999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="21">
+        <f>AVERAGE('fLS10'!B9:AE9)</f>
+        <v>145.66166666666669</v>
+      </c>
+      <c r="C13" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B9:AE9)</f>
+        <v>7.9986424695416627</v>
+      </c>
+      <c r="D13" s="21">
+        <f>MAX('fLS10'!B9:AE9) - MIN('fLS10'!B9:AE9)</f>
+        <v>35.451999999999998</v>
+      </c>
+      <c r="E13" s="21">
+        <f>MEDIAN('fLS10'!B9:AE9)</f>
+        <v>146.0565</v>
+      </c>
+      <c r="F13" s="13">
+        <f>AVERAGE('tLS10'!B9:AE9)</f>
+        <v>3.0462680333333334</v>
+      </c>
+      <c r="G13" s="3">
         <f>MIN('fLS10'!B9:AE9)</f>
         <v>125.982</v>
       </c>
-      <c r="C13" s="28">
-        <f>AVERAGE('fLS10'!B9:AE9)</f>
-        <v>145.66166666666669</v>
-      </c>
-      <c r="D13" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B9:AE9)</f>
-        <v>7.9986424695416627</v>
-      </c>
-      <c r="E13" s="28">
-        <f>MAX('fLS10'!B9:AE9) - MIN('fLS10'!B9:AE9)</f>
-        <v>35.451999999999998</v>
-      </c>
-      <c r="F13" s="28">
-        <f>MEDIAN('fLS10'!B9:AE9)</f>
-        <v>146.0565</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13">
+      <c r="H13" s="21"/>
+      <c r="I13">
         <v>9</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="21">
+        <f>AVERAGE('fLS20'!B9:AE9)</f>
+        <v>325.93540000000002</v>
+      </c>
+      <c r="K13" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B9:AE9)</f>
+        <v>11.932068193458049</v>
+      </c>
+      <c r="L13" s="21">
+        <f>MAX('fLS20'!B9:AE9) - MIN('fLS20'!B9:AE9)</f>
+        <v>44.877999999999986</v>
+      </c>
+      <c r="M13" s="21">
+        <f>MEDIAN('fLS20'!B9:AE9)</f>
+        <v>324.67200000000003</v>
+      </c>
+      <c r="N13" s="13">
+        <f>AVERAGE('tLS20'!B9:AE9)</f>
+        <v>6.4161633999999976</v>
+      </c>
+      <c r="O13" s="3">
         <f>MIN('fLS20'!B9:AE9)</f>
         <v>304.02300000000002</v>
       </c>
-      <c r="J13" s="28">
-        <f>AVERAGE('fLS20'!B9:AE9)</f>
-        <v>325.93540000000002</v>
-      </c>
-      <c r="K13" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B9:AE9)</f>
-        <v>11.932068193458049</v>
-      </c>
-      <c r="L13" s="28">
-        <f>MAX('fLS20'!B9:AE9) - MIN('fLS20'!B9:AE9)</f>
-        <v>44.877999999999986</v>
-      </c>
-      <c r="M13" s="28">
-        <f>MEDIAN('fLS20'!B9:AE9)</f>
-        <v>324.67200000000003</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13">
+      <c r="P13" s="21"/>
+      <c r="Q13">
         <v>9</v>
       </c>
-      <c r="P13" s="3">
+      <c r="R13" s="21">
+        <f>AVERAGE('fLS30'!B9:AE9)</f>
+        <v>498.6833666666667</v>
+      </c>
+      <c r="S13" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B9:AE9)</f>
+        <v>15.156160649459428</v>
+      </c>
+      <c r="T13" s="21">
+        <f>MAX('fLS30'!B9:AE9) - MIN('fLS30'!B9:AE9)</f>
+        <v>63.397000000000048</v>
+      </c>
+      <c r="U13" s="21">
+        <f>MEDIAN('fLS30'!B9:AE9)</f>
+        <v>500.62349999999998</v>
+      </c>
+      <c r="V13" s="13">
+        <f>AVERAGE('tLS30'!B9:AE9)</f>
+        <v>14.3436754</v>
+      </c>
+      <c r="W13" s="3">
         <f>MIN('fLS30'!B9:AE9)</f>
         <v>457.08699999999999</v>
       </c>
-      <c r="Q13" s="28">
-        <f>AVERAGE('fLS30'!B9:AE9)</f>
-        <v>498.6833666666667</v>
-      </c>
-      <c r="R13" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B9:AE9)</f>
-        <v>15.156160649459428</v>
-      </c>
-      <c r="S13" s="28">
-        <f>MAX('fLS30'!B9:AE9) - MIN('fLS30'!B9:AE9)</f>
-        <v>63.397000000000048</v>
-      </c>
-      <c r="T13" s="28">
-        <f>MEDIAN('fLS30'!B9:AE9)</f>
-        <v>500.62349999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="21">
+        <f>AVERAGE('fLS10'!B10:AE10)</f>
+        <v>-4039.6143333333339</v>
+      </c>
+      <c r="C14" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B10:AE10)</f>
+        <v>859.34665181047978</v>
+      </c>
+      <c r="D14" s="21">
+        <f>MAX('fLS10'!B10:AE10) - MIN('fLS10'!B10:AE10)</f>
+        <v>3161.7299999999996</v>
+      </c>
+      <c r="E14" s="21">
+        <f>MEDIAN('fLS10'!B10:AE10)</f>
+        <v>-3685.56</v>
+      </c>
+      <c r="F14" s="13">
+        <f>AVERAGE('tLS10'!B10:AE10)</f>
+        <v>52.000744766666671</v>
+      </c>
+      <c r="G14" s="3">
         <f>MIN('fLS10'!B10:AE10)</f>
         <v>-6131.86</v>
       </c>
-      <c r="C14" s="28">
-        <f>AVERAGE('fLS10'!B10:AE10)</f>
-        <v>-4039.6143333333339</v>
-      </c>
-      <c r="D14" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B10:AE10)</f>
-        <v>859.34665181047978</v>
-      </c>
-      <c r="E14" s="28">
-        <f>MAX('fLS10'!B10:AE10) - MIN('fLS10'!B10:AE10)</f>
-        <v>3161.7299999999996</v>
-      </c>
-      <c r="F14" s="28">
-        <f>MEDIAN('fLS10'!B10:AE10)</f>
-        <v>-3685.56</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14">
+      <c r="H14" s="21"/>
+      <c r="I14">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="21">
+        <f>AVERAGE('fLS20'!B10:AE10)</f>
+        <v>-7788.2403333333332</v>
+      </c>
+      <c r="K14" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B10:AE10)</f>
+        <v>853.15216325688834</v>
+      </c>
+      <c r="L14" s="21">
+        <f>MAX('fLS20'!B10:AE10) - MIN('fLS20'!B10:AE10)</f>
+        <v>3587.8900000000003</v>
+      </c>
+      <c r="M14" s="21">
+        <f>MEDIAN('fLS20'!B10:AE10)</f>
+        <v>-7802.6750000000002</v>
+      </c>
+      <c r="N14" s="13">
+        <f>AVERAGE('tLS20'!B10:AE10)</f>
+        <v>422.16549666666663</v>
+      </c>
+      <c r="O14" s="3">
         <f>MIN('fLS20'!B10:AE10)</f>
         <v>-9808.93</v>
       </c>
-      <c r="J14" s="28">
-        <f>AVERAGE('fLS20'!B10:AE10)</f>
-        <v>-7788.2403333333332</v>
-      </c>
-      <c r="K14" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B10:AE10)</f>
-        <v>853.15216325688834</v>
-      </c>
-      <c r="L14" s="28">
-        <f>MAX('fLS20'!B10:AE10) - MIN('fLS20'!B10:AE10)</f>
-        <v>3587.8900000000003</v>
-      </c>
-      <c r="M14" s="28">
-        <f>MEDIAN('fLS20'!B10:AE10)</f>
-        <v>-7802.6750000000002</v>
-      </c>
-      <c r="N14" s="28"/>
-      <c r="O14">
+      <c r="P14" s="21"/>
+      <c r="Q14">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="21">
+        <f>AVERAGE('fLS30'!B10:AE10)</f>
+        <v>-11490.520666666667</v>
+      </c>
+      <c r="S14" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B10:AE10)</f>
+        <v>1844.8397154024633</v>
+      </c>
+      <c r="T14" s="21">
+        <f>MAX('fLS30'!B10:AE10) - MIN('fLS30'!B10:AE10)</f>
+        <v>9890.8799999999992</v>
+      </c>
+      <c r="U14" s="21">
+        <f>MEDIAN('fLS30'!B10:AE10)</f>
+        <v>-11958.25</v>
+      </c>
+      <c r="V14" s="13">
+        <f>AVERAGE('tLS30'!B10:AE10)</f>
+        <v>644.9789209999999</v>
+      </c>
+      <c r="W14" s="3">
         <f>MIN('fLS30'!B10:AE10)</f>
         <v>-14093.9</v>
       </c>
-      <c r="Q14" s="28">
-        <f>AVERAGE('fLS30'!B10:AE10)</f>
-        <v>-11490.520666666667</v>
-      </c>
-      <c r="R14" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B10:AE10)</f>
-        <v>1844.8397154024633</v>
-      </c>
-      <c r="S14" s="28">
-        <f>MAX('fLS30'!B10:AE10) - MIN('fLS30'!B10:AE10)</f>
-        <v>9890.8799999999992</v>
-      </c>
-      <c r="T14" s="28">
-        <f>MEDIAN('fLS30'!B10:AE10)</f>
-        <v>-11958.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="21">
+        <f>AVERAGE('fLS10'!B11:AE11)</f>
+        <v>-2497.588666666667</v>
+      </c>
+      <c r="C15" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B11:AE11)</f>
+        <v>574.14409840348787</v>
+      </c>
+      <c r="D15" s="21">
+        <f>MAX('fLS10'!B11:AE11) - MIN('fLS10'!B11:AE11)</f>
+        <v>2273.17</v>
+      </c>
+      <c r="E15" s="21">
+        <f>MEDIAN('fLS10'!B11:AE11)</f>
+        <v>-2541.9750000000004</v>
+      </c>
+      <c r="F15" s="13">
+        <f>AVERAGE('tLS10'!B11:AE11)</f>
+        <v>94.862849499999982</v>
+      </c>
+      <c r="G15" s="3">
         <f>MIN('fLS10'!B11:AE11)</f>
         <v>-3533.62</v>
       </c>
-      <c r="C15" s="28">
-        <f>AVERAGE('fLS10'!B11:AE11)</f>
-        <v>-2497.588666666667</v>
-      </c>
-      <c r="D15" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B11:AE11)</f>
-        <v>574.14409840348787</v>
-      </c>
-      <c r="E15" s="28">
-        <f>MAX('fLS10'!B11:AE11) - MIN('fLS10'!B11:AE11)</f>
-        <v>2273.17</v>
-      </c>
-      <c r="F15" s="28">
-        <f>MEDIAN('fLS10'!B11:AE11)</f>
-        <v>-2541.9750000000004</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15">
+      <c r="H15" s="21"/>
+      <c r="I15">
         <v>11</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="21">
+        <f>AVERAGE('fLS20'!B11:AE11)</f>
+        <v>-4371.9093333333321</v>
+      </c>
+      <c r="K15" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B11:AE11)</f>
+        <v>1482.7261174245577</v>
+      </c>
+      <c r="L15" s="21">
+        <f>MAX('fLS20'!B11:AE11) - MIN('fLS20'!B11:AE11)</f>
+        <v>4700.34</v>
+      </c>
+      <c r="M15" s="21">
+        <f>MEDIAN('fLS20'!B11:AE11)</f>
+        <v>-4920.2150000000001</v>
+      </c>
+      <c r="N15" s="13">
+        <f>AVERAGE('tLS20'!B11:AE11)</f>
+        <v>452.03605626666666</v>
+      </c>
+      <c r="O15" s="3">
         <f>MIN('fLS20'!B11:AE11)</f>
         <v>-6088.55</v>
       </c>
-      <c r="J15" s="28">
-        <f>AVERAGE('fLS20'!B11:AE11)</f>
-        <v>-4371.9093333333321</v>
-      </c>
-      <c r="K15" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B11:AE11)</f>
-        <v>1482.7261174245577</v>
-      </c>
-      <c r="L15" s="28">
-        <f>MAX('fLS20'!B11:AE11) - MIN('fLS20'!B11:AE11)</f>
-        <v>4700.34</v>
-      </c>
-      <c r="M15" s="28">
-        <f>MEDIAN('fLS20'!B11:AE11)</f>
-        <v>-4920.2150000000001</v>
-      </c>
-      <c r="N15" s="28"/>
-      <c r="O15">
+      <c r="P15" s="21"/>
+      <c r="Q15">
         <v>11</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="21">
+        <f>AVERAGE('fLS30'!B11:AE11)</f>
+        <v>-6731.3953333333329</v>
+      </c>
+      <c r="S15" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B11:AE11)</f>
+        <v>1768.2906318037435</v>
+      </c>
+      <c r="T15" s="21">
+        <f>MAX('fLS30'!B11:AE11) - MIN('fLS30'!B11:AE11)</f>
+        <v>7128.3799999999992</v>
+      </c>
+      <c r="U15" s="21">
+        <f>MEDIAN('fLS30'!B11:AE11)</f>
+        <v>-7097.6350000000002</v>
+      </c>
+      <c r="V15" s="13">
+        <f>AVERAGE('tLS30'!B11:AE11)</f>
+        <v>1773.0157602666661</v>
+      </c>
+      <c r="W15" s="3">
         <f>MIN('fLS30'!B11:AE11)</f>
         <v>-9126.4</v>
       </c>
-      <c r="Q15" s="28">
-        <f>AVERAGE('fLS30'!B11:AE11)</f>
-        <v>-6731.3953333333329</v>
-      </c>
-      <c r="R15" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B11:AE11)</f>
-        <v>1768.2906318037435</v>
-      </c>
-      <c r="S15" s="28">
-        <f>MAX('fLS30'!B11:AE11) - MIN('fLS30'!B11:AE11)</f>
-        <v>7128.3799999999992</v>
-      </c>
-      <c r="T15" s="28">
-        <f>MEDIAN('fLS30'!B11:AE11)</f>
-        <v>-7097.6350000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="21">
+        <f>AVERAGE('fLS10'!B12:AE12)</f>
+        <v>3.9404466666666664</v>
+      </c>
+      <c r="C16" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B12:AE12)</f>
+        <v>0.24223157002247989</v>
+      </c>
+      <c r="D16" s="21">
+        <f>MAX('fLS10'!B12:AE12) - MIN('fLS10'!B12:AE12)</f>
+        <v>1.1295600000000001</v>
+      </c>
+      <c r="E16" s="21">
+        <f>MEDIAN('fLS10'!B12:AE12)</f>
+        <v>4.0022800000000007</v>
+      </c>
+      <c r="F16" s="13">
+        <f>AVERAGE('tLS10'!B12:AE12)</f>
+        <v>2.3604533333333334E-2</v>
+      </c>
+      <c r="G16" s="3">
         <f>MIN('fLS10'!B12:AE12)</f>
         <v>3.28668</v>
       </c>
-      <c r="C16" s="28">
-        <f>AVERAGE('fLS10'!B12:AE12)</f>
-        <v>3.9404466666666664</v>
-      </c>
-      <c r="D16" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B12:AE12)</f>
-        <v>0.24223157002247989</v>
-      </c>
-      <c r="E16" s="28">
-        <f>MAX('fLS10'!B12:AE12) - MIN('fLS10'!B12:AE12)</f>
-        <v>1.1295600000000001</v>
-      </c>
-      <c r="F16" s="28">
-        <f>MEDIAN('fLS10'!B12:AE12)</f>
-        <v>4.0022800000000007</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16">
+      <c r="H16" s="21"/>
+      <c r="I16">
         <v>12</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="21">
+        <f>AVERAGE('fLS20'!B12:AE12)</f>
+        <v>8.7249806666666654</v>
+      </c>
+      <c r="K16" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B12:AE12)</f>
+        <v>0.21621191770935175</v>
+      </c>
+      <c r="L16" s="21">
+        <f>MAX('fLS20'!B12:AE12) - MIN('fLS20'!B12:AE12)</f>
+        <v>0.97898999999999958</v>
+      </c>
+      <c r="M16" s="21">
+        <f>MEDIAN('fLS20'!B12:AE12)</f>
+        <v>8.7838700000000003</v>
+      </c>
+      <c r="N16" s="13">
+        <f>AVERAGE('tLS20'!B12:AE12)</f>
+        <v>5.46892E-2</v>
+      </c>
+      <c r="O16" s="3">
         <f>MIN('fLS20'!B12:AE12)</f>
         <v>8.0886600000000008</v>
       </c>
-      <c r="J16" s="28">
-        <f>AVERAGE('fLS20'!B12:AE12)</f>
-        <v>8.7249806666666654</v>
-      </c>
-      <c r="K16" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B12:AE12)</f>
-        <v>0.21621191770935175</v>
-      </c>
-      <c r="L16" s="28">
-        <f>MAX('fLS20'!B12:AE12) - MIN('fLS20'!B12:AE12)</f>
-        <v>0.97898999999999958</v>
-      </c>
-      <c r="M16" s="28">
-        <f>MEDIAN('fLS20'!B12:AE12)</f>
-        <v>8.7838700000000003</v>
-      </c>
-      <c r="N16" s="28"/>
-      <c r="O16">
+      <c r="P16" s="21"/>
+      <c r="Q16">
         <v>12</v>
       </c>
-      <c r="P16" s="3">
+      <c r="R16" s="21">
+        <f>AVERAGE('fLS30'!B12:AE12)</f>
+        <v>13.664723333333336</v>
+      </c>
+      <c r="S16" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B12:AE12)</f>
+        <v>0.25604275903753954</v>
+      </c>
+      <c r="T16" s="21">
+        <f>MAX('fLS30'!B12:AE12) - MIN('fLS30'!B12:AE12)</f>
+        <v>1.0391999999999992</v>
+      </c>
+      <c r="U16" s="21">
+        <f>MEDIAN('fLS30'!B12:AE12)</f>
+        <v>13.720500000000001</v>
+      </c>
+      <c r="V16" s="13">
+        <f>AVERAGE('tLS30'!B12:AE12)</f>
+        <v>9.1905399999999998E-2</v>
+      </c>
+      <c r="W16" s="3">
         <f>MIN('fLS30'!B12:AE12)</f>
         <v>13.0715</v>
       </c>
-      <c r="Q16" s="28">
-        <f>AVERAGE('fLS30'!B12:AE12)</f>
-        <v>13.664723333333336</v>
-      </c>
-      <c r="R16" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B12:AE12)</f>
-        <v>0.25604275903753954</v>
-      </c>
-      <c r="S16" s="28">
-        <f>MAX('fLS30'!B12:AE12) - MIN('fLS30'!B12:AE12)</f>
-        <v>1.0391999999999992</v>
-      </c>
-      <c r="T16" s="28">
-        <f>MEDIAN('fLS30'!B12:AE12)</f>
-        <v>13.720500000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="21">
+        <f>AVERAGE('fLS10'!B13:AE13)</f>
+        <v>-2.8973680000000002</v>
+      </c>
+      <c r="C17" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B13:AE13)</f>
+        <v>0.5196017162365798</v>
+      </c>
+      <c r="D17" s="21">
+        <f>MAX('fLS10'!B13:AE13) - MIN('fLS10'!B13:AE13)</f>
+        <v>2.0762700000000005</v>
+      </c>
+      <c r="E17" s="21">
+        <f>MEDIAN('fLS10'!B13:AE13)</f>
+        <v>-2.9591750000000001</v>
+      </c>
+      <c r="F17" s="13">
+        <f>AVERAGE('tLS10'!B13:AE13)</f>
+        <v>4.8097633333333341E-2</v>
+      </c>
+      <c r="G17" s="3">
         <f>MIN('fLS10'!B13:AE13)</f>
         <v>-4.1218700000000004</v>
       </c>
-      <c r="C17" s="28">
-        <f>AVERAGE('fLS10'!B13:AE13)</f>
-        <v>-2.8973680000000002</v>
-      </c>
-      <c r="D17" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B13:AE13)</f>
-        <v>0.5196017162365798</v>
-      </c>
-      <c r="E17" s="28">
-        <f>MAX('fLS10'!B13:AE13) - MIN('fLS10'!B13:AE13)</f>
-        <v>2.0762700000000005</v>
-      </c>
-      <c r="F17" s="28">
-        <f>MEDIAN('fLS10'!B13:AE13)</f>
-        <v>-2.9591750000000001</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17">
+      <c r="H17" s="21"/>
+      <c r="I17">
         <v>13</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="21">
+        <f>AVERAGE('fLS20'!B13:AE13)</f>
+        <v>-4.4778123333333335</v>
+      </c>
+      <c r="K17" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B13:AE13)</f>
+        <v>0.48640074726288163</v>
+      </c>
+      <c r="L17" s="21">
+        <f>MAX('fLS20'!B13:AE13) - MIN('fLS20'!B13:AE13)</f>
+        <v>1.8075699999999997</v>
+      </c>
+      <c r="M17" s="21">
+        <f>MEDIAN('fLS20'!B13:AE13)</f>
+        <v>-4.445875</v>
+      </c>
+      <c r="N17" s="13">
+        <f>AVERAGE('tLS20'!B13:AE13)</f>
+        <v>0.11150433333333333</v>
+      </c>
+      <c r="O17" s="3">
         <f>MIN('fLS20'!B13:AE13)</f>
         <v>-5.5709999999999997</v>
       </c>
-      <c r="J17" s="28">
-        <f>AVERAGE('fLS20'!B13:AE13)</f>
-        <v>-4.4778123333333335</v>
-      </c>
-      <c r="K17" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B13:AE13)</f>
-        <v>0.48640074726288163</v>
-      </c>
-      <c r="L17" s="28">
-        <f>MAX('fLS20'!B13:AE13) - MIN('fLS20'!B13:AE13)</f>
-        <v>1.8075699999999997</v>
-      </c>
-      <c r="M17" s="28">
-        <f>MEDIAN('fLS20'!B13:AE13)</f>
-        <v>-4.445875</v>
-      </c>
-      <c r="N17" s="28"/>
-      <c r="O17">
+      <c r="P17" s="21"/>
+      <c r="Q17">
         <v>13</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="21">
+        <f>AVERAGE('fLS30'!B13:AE13)</f>
+        <v>-5.9874549999999989</v>
+      </c>
+      <c r="S17" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B13:AE13)</f>
+        <v>0.68153830425370066</v>
+      </c>
+      <c r="T17" s="21">
+        <f>MAX('fLS30'!B13:AE13) - MIN('fLS30'!B13:AE13)</f>
+        <v>3.0070199999999998</v>
+      </c>
+      <c r="U17" s="21">
+        <f>MEDIAN('fLS30'!B13:AE13)</f>
+        <v>-5.9274149999999999</v>
+      </c>
+      <c r="V17" s="13">
+        <f>AVERAGE('tLS30'!B13:AE13)</f>
+        <v>0.19435179999999999</v>
+      </c>
+      <c r="W17" s="3">
         <f>MIN('fLS30'!B13:AE13)</f>
         <v>-7.8512300000000002</v>
       </c>
-      <c r="Q17" s="28">
-        <f>AVERAGE('fLS30'!B13:AE13)</f>
-        <v>-5.9874549999999989</v>
-      </c>
-      <c r="R17" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B13:AE13)</f>
-        <v>0.68153830425370066</v>
-      </c>
-      <c r="S17" s="28">
-        <f>MAX('fLS30'!B13:AE13) - MIN('fLS30'!B13:AE13)</f>
-        <v>3.0070199999999998</v>
-      </c>
-      <c r="T17" s="28">
-        <f>MEDIAN('fLS30'!B13:AE13)</f>
-        <v>-5.9274149999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="21">
+        <f>AVERAGE('fLS10'!B14:AE14)</f>
+        <v>-0.50563564533333338</v>
+      </c>
+      <c r="C18" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B14:AE14)</f>
+        <v>0.37789632091555192</v>
+      </c>
+      <c r="D18" s="21">
+        <f>MAX('fLS10'!B14:AE14) - MIN('fLS10'!B14:AE14)</f>
+        <v>1.4490243399999998</v>
+      </c>
+      <c r="E18" s="21">
+        <f>MEDIAN('fLS10'!B14:AE14)</f>
+        <v>-0.29686999999999997</v>
+      </c>
+      <c r="F18" s="13">
+        <f>AVERAGE('tLS10'!B14:AE14)</f>
+        <v>158.49306866666663</v>
+      </c>
+      <c r="G18" s="3">
         <f>MIN('fLS10'!B14:AE14)</f>
         <v>-1.4567699999999999</v>
       </c>
-      <c r="C18" s="28">
-        <f>AVERAGE('fLS10'!B14:AE14)</f>
-        <v>-0.50563564533333338</v>
-      </c>
-      <c r="D18" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B14:AE14)</f>
-        <v>0.37789632091555192</v>
-      </c>
-      <c r="E18" s="28">
-        <f>MAX('fLS10'!B14:AE14) - MIN('fLS10'!B14:AE14)</f>
-        <v>1.4490243399999998</v>
-      </c>
-      <c r="F18" s="28">
-        <f>MEDIAN('fLS10'!B14:AE14)</f>
-        <v>-0.29686999999999997</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18">
+      <c r="H18" s="21"/>
+      <c r="I18">
         <v>14</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="21">
+        <f>AVERAGE('fLS20'!B14:AE14)</f>
+        <v>-0.61858430999999992</v>
+      </c>
+      <c r="K18" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B14:AE14)</f>
+        <v>0.33538243087392094</v>
+      </c>
+      <c r="L18" s="21">
+        <f>MAX('fLS20'!B14:AE14) - MIN('fLS20'!B14:AE14)</f>
+        <v>1.4622377</v>
+      </c>
+      <c r="M18" s="21">
+        <f>MEDIAN('fLS20'!B14:AE14)</f>
+        <v>-0.72290399999999999</v>
+      </c>
+      <c r="N18" s="13">
+        <f>AVERAGE('tLS20'!B14:AE14)</f>
+        <v>364.60769889999995</v>
+      </c>
+      <c r="O18" s="3">
         <f>MIN('fLS20'!B14:AE14)</f>
         <v>-1.5266299999999999</v>
       </c>
-      <c r="J18" s="28">
-        <f>AVERAGE('fLS20'!B14:AE14)</f>
-        <v>-0.61858430999999992</v>
-      </c>
-      <c r="K18" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B14:AE14)</f>
-        <v>0.33538243087392094</v>
-      </c>
-      <c r="L18" s="28">
-        <f>MAX('fLS20'!B14:AE14) - MIN('fLS20'!B14:AE14)</f>
-        <v>1.4622377</v>
-      </c>
-      <c r="M18" s="28">
-        <f>MEDIAN('fLS20'!B14:AE14)</f>
-        <v>-0.72290399999999999</v>
-      </c>
-      <c r="N18" s="28"/>
-      <c r="O18">
+      <c r="P18" s="21"/>
+      <c r="Q18">
         <v>14</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="21">
+        <f>AVERAGE('fLS30'!B14:AE14)</f>
+        <v>-0.86839186666666668</v>
+      </c>
+      <c r="S18" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B14:AE14)</f>
+        <v>0.37292792373511308</v>
+      </c>
+      <c r="T18" s="21">
+        <f>MAX('fLS30'!B14:AE14) - MIN('fLS30'!B14:AE14)</f>
+        <v>1.3463160000000001</v>
+      </c>
+      <c r="U18" s="21">
+        <f>MEDIAN('fLS30'!B14:AE14)</f>
+        <v>-0.74166200000000004</v>
+      </c>
+      <c r="V18" s="13">
+        <f>AVERAGE('tLS30'!B14:AE14)</f>
+        <v>1206.6335941</v>
+      </c>
+      <c r="W18" s="3">
         <f>MIN('fLS30'!B14:AE14)</f>
         <v>-1.6423300000000001</v>
       </c>
-      <c r="Q18" s="28">
-        <f>AVERAGE('fLS30'!B14:AE14)</f>
-        <v>-0.86839186666666668</v>
-      </c>
-      <c r="R18" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B14:AE14)</f>
-        <v>0.37292792373511308</v>
-      </c>
-      <c r="S18" s="28">
-        <f>MAX('fLS30'!B14:AE14) - MIN('fLS30'!B14:AE14)</f>
-        <v>1.3463160000000001</v>
-      </c>
-      <c r="T18" s="28">
-        <f>MEDIAN('fLS30'!B14:AE14)</f>
-        <v>-0.74166200000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="1">
+        <f>AVERAGE('fLS10'!B15:AE15)</f>
+        <v>280795270</v>
+      </c>
+      <c r="C19" s="1">
+        <f>_xlfn.STDEV.P('fLS10'!B15:AE15)</f>
+        <v>133699530.03073998</v>
+      </c>
+      <c r="D19" s="1">
+        <f>MAX('fLS10'!B15:AE15) - MIN('fLS10'!B15:AE15)</f>
+        <v>511280900</v>
+      </c>
+      <c r="E19" s="1">
+        <f>MEDIAN('fLS10'!B15:AE15)</f>
+        <v>238567500</v>
+      </c>
+      <c r="F19" s="13">
+        <f>AVERAGE('tLS10'!B15:AE15)</f>
+        <v>9.4947999999999994E-3</v>
+      </c>
+      <c r="G19" s="30">
         <f>MIN('fLS10'!B15:AE15)</f>
         <v>78262100</v>
       </c>
-      <c r="C19" s="1">
-        <f>AVERAGE('fLS10'!B15:AE15)</f>
-        <v>280795270</v>
-      </c>
-      <c r="D19" s="1">
-        <f>_xlfn.STDEV.P('fLS10'!B15:AE15)</f>
-        <v>133699530.03073998</v>
-      </c>
-      <c r="E19" s="1">
-        <f>MAX('fLS10'!B15:AE15) - MIN('fLS10'!B15:AE15)</f>
-        <v>511280900</v>
-      </c>
-      <c r="F19" s="1">
-        <f>MEDIAN('fLS10'!B15:AE15)</f>
-        <v>238567500</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19">
+      <c r="H19" s="1"/>
+      <c r="I19">
         <v>15</v>
-      </c>
-      <c r="I19" s="35">
-        <f>MIN('fLS20'!B15:AE15)</f>
-        <v>833387000</v>
       </c>
       <c r="J19" s="1">
         <f>AVERAGE('fLS20'!B15:AE15)</f>
@@ -12143,388 +12603,475 @@
         <f>MEDIAN('fLS20'!B15:AE15)</f>
         <v>1523460000</v>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19">
+      <c r="N19" s="13">
+        <f>AVERAGE('tLS20'!B15:AE15)</f>
+        <v>1.7937466666666665E-2</v>
+      </c>
+      <c r="O19" s="30">
+        <f>MIN('fLS20'!B15:AE15)</f>
+        <v>833387000</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19">
         <v>15</v>
       </c>
-      <c r="P19" s="35">
+      <c r="R19" s="1">
+        <f>AVERAGE('fLS30'!B15:AE15)</f>
+        <v>4376696000</v>
+      </c>
+      <c r="S19" s="1">
+        <f>_xlfn.STDEV.P('fLS30'!B15:AE15)</f>
+        <v>1124399153.4225411</v>
+      </c>
+      <c r="T19" s="1">
+        <f>MAX('fLS30'!B15:AE15) - MIN('fLS30'!B15:AE15)</f>
+        <v>4522870000</v>
+      </c>
+      <c r="U19" s="1">
+        <f>MEDIAN('fLS30'!B15:AE15)</f>
+        <v>4278215000</v>
+      </c>
+      <c r="V19" s="13">
+        <f>AVERAGE('tLS30'!B15:AE15)</f>
+        <v>2.6149166666666668E-2</v>
+      </c>
+      <c r="W19" s="30">
         <f>MIN('fLS30'!B15:AE15)</f>
         <v>1939250000</v>
       </c>
-      <c r="Q19" s="1">
-        <f>AVERAGE('fLS30'!B15:AE15)</f>
-        <v>4376696000</v>
-      </c>
-      <c r="R19" s="1">
-        <f>_xlfn.STDEV.P('fLS30'!B15:AE15)</f>
-        <v>1124399153.4225411</v>
-      </c>
-      <c r="S19" s="1">
-        <f>MAX('fLS30'!B15:AE15) - MIN('fLS30'!B15:AE15)</f>
-        <v>4522870000</v>
-      </c>
-      <c r="T19" s="1">
-        <f>MEDIAN('fLS30'!B15:AE15)</f>
-        <v>4278215000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="21">
+        <f>AVERAGE('fLS10'!B16:AE16)</f>
+        <v>15.924206000000003</v>
+      </c>
+      <c r="C20" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B16:AE16)</f>
+        <v>10.460526902786038</v>
+      </c>
+      <c r="D20" s="21">
+        <f>MAX('fLS10'!B16:AE16) - MIN('fLS10'!B16:AE16)</f>
+        <v>43.748339999999999</v>
+      </c>
+      <c r="E20" s="21">
+        <f>MEDIAN('fLS10'!B16:AE16)</f>
+        <v>13.051550000000001</v>
+      </c>
+      <c r="F20" s="13">
+        <f>AVERAGE('tLS10'!B16:AE16)</f>
+        <v>7.0163104000000001</v>
+      </c>
+      <c r="G20" s="3">
         <f>MIN('fLS10'!B16:AE16)</f>
         <v>3.2448600000000001</v>
       </c>
-      <c r="C20" s="28">
-        <f>AVERAGE('fLS10'!B16:AE16)</f>
-        <v>15.924206000000003</v>
-      </c>
-      <c r="D20" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B16:AE16)</f>
-        <v>10.460526902786038</v>
-      </c>
-      <c r="E20" s="28">
-        <f>MAX('fLS10'!B16:AE16) - MIN('fLS10'!B16:AE16)</f>
-        <v>43.748339999999999</v>
-      </c>
-      <c r="F20" s="28">
-        <f>MEDIAN('fLS10'!B16:AE16)</f>
-        <v>13.051550000000001</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20">
+      <c r="H20" s="21"/>
+      <c r="I20">
         <v>16</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="21">
+        <f>AVERAGE('fLS20'!B16:AE16)</f>
+        <v>43.058776666666667</v>
+      </c>
+      <c r="K20" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B16:AE16)</f>
+        <v>29.819026748243413</v>
+      </c>
+      <c r="L20" s="21">
+        <f>MAX('fLS20'!B16:AE16) - MIN('fLS20'!B16:AE16)</f>
+        <v>132.3141</v>
+      </c>
+      <c r="M20" s="21">
+        <f>MEDIAN('fLS20'!B16:AE16)</f>
+        <v>28.3613</v>
+      </c>
+      <c r="N20" s="13">
+        <f>AVERAGE('tLS20'!B16:AE16)</f>
+        <v>30.489436233333329</v>
+      </c>
+      <c r="O20" s="3">
         <f>MIN('fLS20'!B16:AE16)</f>
         <v>16.483899999999998</v>
       </c>
-      <c r="J20" s="28">
-        <f>AVERAGE('fLS20'!B16:AE16)</f>
-        <v>43.058776666666667</v>
-      </c>
-      <c r="K20" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B16:AE16)</f>
-        <v>29.819026748243413</v>
-      </c>
-      <c r="L20" s="28">
-        <f>MAX('fLS20'!B16:AE16) - MIN('fLS20'!B16:AE16)</f>
-        <v>132.3141</v>
-      </c>
-      <c r="M20" s="28">
-        <f>MEDIAN('fLS20'!B16:AE16)</f>
-        <v>28.3613</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20">
+      <c r="P20" s="21"/>
+      <c r="Q20">
         <v>16</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="21">
+        <f>AVERAGE('fLS30'!B16:AE16)</f>
+        <v>51.846613333333337</v>
+      </c>
+      <c r="S20" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B16:AE16)</f>
+        <v>17.961319014885532</v>
+      </c>
+      <c r="T20" s="21">
+        <f>MAX('fLS30'!B16:AE16) - MIN('fLS30'!B16:AE16)</f>
+        <v>55.984600000000007</v>
+      </c>
+      <c r="U20" s="21">
+        <f>MEDIAN('fLS30'!B16:AE16)</f>
+        <v>41.915149999999997</v>
+      </c>
+      <c r="V20" s="13">
+        <f>AVERAGE('tLS30'!B16:AE16)</f>
+        <v>68.707304333333326</v>
+      </c>
+      <c r="W20" s="3">
         <f>MIN('fLS30'!B16:AE16)</f>
         <v>27.759599999999999</v>
       </c>
-      <c r="Q20" s="28">
-        <f>AVERAGE('fLS30'!B16:AE16)</f>
-        <v>51.846613333333337</v>
-      </c>
-      <c r="R20" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B16:AE16)</f>
-        <v>17.961319014885532</v>
-      </c>
-      <c r="S20" s="28">
-        <f>MAX('fLS30'!B16:AE16) - MIN('fLS30'!B16:AE16)</f>
-        <v>55.984600000000007</v>
-      </c>
-      <c r="T20" s="28">
-        <f>MEDIAN('fLS30'!B16:AE16)</f>
-        <v>41.915149999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="21">
+        <f>AVERAGE('fLS10'!B17:AE17)</f>
+        <v>3.0486023333333341</v>
+      </c>
+      <c r="C21" s="21">
+        <f>_xlfn.STDEV.P('fLS10'!B17:AE17)</f>
+        <v>3.1816110246575081E-2</v>
+      </c>
+      <c r="D21" s="21">
+        <f>MAX('fLS10'!B17:AE17) - MIN('fLS10'!B17:AE17)</f>
+        <v>0.10395999999999983</v>
+      </c>
+      <c r="E21" s="21">
+        <f>MEDIAN('fLS10'!B17:AE17)</f>
+        <v>3.0411000000000001</v>
+      </c>
+      <c r="F21" s="13">
+        <f>AVERAGE('tLS10'!B17:AE17)</f>
+        <v>5.3467966666666658E-2</v>
+      </c>
+      <c r="G21" s="3">
         <f>MIN('fLS10'!B17:AE17)</f>
         <v>2.9762900000000001</v>
       </c>
-      <c r="C21" s="28">
-        <f>AVERAGE('fLS10'!B17:AE17)</f>
-        <v>3.0486023333333341</v>
-      </c>
-      <c r="D21" s="28">
-        <f>_xlfn.STDEV.P('fLS10'!B17:AE17)</f>
-        <v>3.1816110246575081E-2</v>
-      </c>
-      <c r="E21" s="28">
-        <f>MAX('fLS10'!B17:AE17) - MIN('fLS10'!B17:AE17)</f>
-        <v>0.10395999999999983</v>
-      </c>
-      <c r="F21" s="28">
-        <f>MEDIAN('fLS10'!B17:AE17)</f>
-        <v>3.0411000000000001</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21">
+      <c r="H21" s="21"/>
+      <c r="I21">
         <v>17</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="21">
+        <f>AVERAGE('fLS20'!B17:AE17)</f>
+        <v>6.1390220000000006</v>
+      </c>
+      <c r="K21" s="21">
+        <f>_xlfn.STDEV.P('fLS20'!B17:AE17)</f>
+        <v>3.7745924936783991E-2</v>
+      </c>
+      <c r="L21" s="21">
+        <f>MAX('fLS20'!B17:AE17) - MIN('fLS20'!B17:AE17)</f>
+        <v>0.18175000000000008</v>
+      </c>
+      <c r="M21" s="21">
+        <f>MEDIAN('fLS20'!B17:AE17)</f>
+        <v>6.1604999999999999</v>
+      </c>
+      <c r="N21" s="13">
+        <f>AVERAGE('tLS20'!B17:AE17)</f>
+        <v>0.14590920000000002</v>
+      </c>
+      <c r="O21" s="3">
         <f>MIN('fLS20'!B17:AE17)</f>
         <v>6.0242500000000003</v>
       </c>
-      <c r="J21" s="28">
-        <f>AVERAGE('fLS20'!B17:AE17)</f>
-        <v>6.1390220000000006</v>
-      </c>
-      <c r="K21" s="28">
-        <f>_xlfn.STDEV.P('fLS20'!B17:AE17)</f>
-        <v>3.7745924936783991E-2</v>
-      </c>
-      <c r="L21" s="28">
-        <f>MAX('fLS20'!B17:AE17) - MIN('fLS20'!B17:AE17)</f>
-        <v>0.18175000000000008</v>
-      </c>
-      <c r="M21" s="28">
-        <f>MEDIAN('fLS20'!B17:AE17)</f>
-        <v>6.1604999999999999</v>
-      </c>
-      <c r="N21" s="28"/>
-      <c r="O21">
+      <c r="P21" s="21"/>
+      <c r="Q21">
         <v>17</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="21">
+        <f>AVERAGE('fLS30'!B17:AE17)</f>
+        <v>9.2016329999999993</v>
+      </c>
+      <c r="S21" s="21">
+        <f>_xlfn.STDEV.P('fLS30'!B17:AE17)</f>
+        <v>6.3803603145381527E-2</v>
+      </c>
+      <c r="T21" s="21">
+        <f>MAX('fLS30'!B17:AE17) - MIN('fLS30'!B17:AE17)</f>
+        <v>0.32157999999999909</v>
+      </c>
+      <c r="U21" s="21">
+        <f>MEDIAN('fLS30'!B17:AE17)</f>
+        <v>9.2097949999999997</v>
+      </c>
+      <c r="V21" s="13">
+        <f>AVERAGE('tLS30'!B17:AE17)</f>
+        <v>0.25357090000000004</v>
+      </c>
+      <c r="W21" s="3">
         <f>MIN('fLS30'!B17:AE17)</f>
         <v>9.0745100000000001</v>
       </c>
-      <c r="Q21" s="28">
-        <f>AVERAGE('fLS30'!B17:AE17)</f>
-        <v>9.2016329999999993</v>
-      </c>
-      <c r="R21" s="28">
-        <f>_xlfn.STDEV.P('fLS30'!B17:AE17)</f>
-        <v>6.3803603145381527E-2</v>
-      </c>
-      <c r="S21" s="28">
-        <f>MAX('fLS30'!B17:AE17) - MIN('fLS30'!B17:AE17)</f>
-        <v>0.32157999999999909</v>
-      </c>
-      <c r="T21" s="28">
-        <f>MEDIAN('fLS30'!B17:AE17)</f>
-        <v>9.2097949999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="15">
+        <f>AVERAGE('fLS10'!B18:AE18)</f>
+        <v>129.78976333333335</v>
+      </c>
+      <c r="C22" s="15">
+        <f>_xlfn.STDEV.P('fLS10'!B18:AE18)</f>
+        <v>35.981408398333308</v>
+      </c>
+      <c r="D22" s="15">
+        <f>MAX('fLS10'!B18:AE18) - MIN('fLS10'!B18:AE18)</f>
+        <v>142.36520000000002</v>
+      </c>
+      <c r="E22" s="15">
+        <f>MEDIAN('fLS10'!B18:AE18)</f>
+        <v>130.32850000000002</v>
+      </c>
+      <c r="F22" s="15">
+        <f>AVERAGE('tLS10'!B18:AE18)</f>
+        <v>2.4635366666666665E-2</v>
+      </c>
+      <c r="G22" s="7">
         <f>MIN('fLS10'!B18:AE18)</f>
         <v>66.797799999999995</v>
       </c>
-      <c r="C22" s="20">
-        <f>AVERAGE('fLS10'!B18:AE18)</f>
-        <v>129.78976333333335</v>
-      </c>
-      <c r="D22" s="20">
-        <f>_xlfn.STDEV.P('fLS10'!B18:AE18)</f>
-        <v>35.981408398333308</v>
-      </c>
-      <c r="E22" s="20">
-        <f>MAX('fLS10'!B18:AE18) - MIN('fLS10'!B18:AE18)</f>
-        <v>142.36520000000002</v>
-      </c>
-      <c r="F22" s="20">
-        <f>MEDIAN('fLS10'!B18:AE18)</f>
-        <v>130.32850000000002</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="11">
+      <c r="H22" s="13"/>
+      <c r="I22" s="7">
         <v>18</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J22" s="15">
+        <f>AVERAGE('fLS20'!B18:AE18)</f>
+        <v>317.44559999999996</v>
+      </c>
+      <c r="K22" s="15">
+        <f>_xlfn.STDEV.P('fLS20'!B18:AE18)</f>
+        <v>86.281789312152625</v>
+      </c>
+      <c r="L22" s="15">
+        <f>MAX('fLS20'!B18:AE18) - MIN('fLS20'!B18:AE18)</f>
+        <v>305.31899999999996</v>
+      </c>
+      <c r="M22" s="15">
+        <f>MEDIAN('fLS20'!B18:AE18)</f>
+        <v>313.45650000000001</v>
+      </c>
+      <c r="N22" s="15">
+        <f>AVERAGE('tLS20'!B18:AE18)</f>
+        <v>5.7300400000000015E-2</v>
+      </c>
+      <c r="O22" s="7">
         <f>MIN('fLS20'!B18:AE18)</f>
         <v>160.34</v>
       </c>
-      <c r="J22" s="20">
-        <f>AVERAGE('fLS20'!B18:AE18)</f>
-        <v>317.44559999999996</v>
-      </c>
-      <c r="K22" s="20">
-        <f>_xlfn.STDEV.P('fLS20'!B18:AE18)</f>
-        <v>86.281789312152625</v>
-      </c>
-      <c r="L22" s="20">
-        <f>MAX('fLS20'!B18:AE18) - MIN('fLS20'!B18:AE18)</f>
-        <v>305.31899999999996</v>
-      </c>
-      <c r="M22" s="20">
-        <f>MEDIAN('fLS20'!B18:AE18)</f>
-        <v>313.45650000000001</v>
-      </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="11">
+      <c r="P22" s="21"/>
+      <c r="Q22" s="7">
         <v>18</v>
       </c>
-      <c r="P22" s="13">
+      <c r="R22" s="15">
+        <f>AVERAGE('fLS30'!B18:AE18)</f>
+        <v>514.42966666666678</v>
+      </c>
+      <c r="S22" s="15">
+        <f>_xlfn.STDEV.P('fLS30'!B18:AE18)</f>
+        <v>105.53784684978507</v>
+      </c>
+      <c r="T22" s="15">
+        <f>MAX('fLS30'!B18:AE18) - MIN('fLS30'!B18:AE18)</f>
+        <v>402.17500000000001</v>
+      </c>
+      <c r="U22" s="15">
+        <f>MEDIAN('fLS30'!B18:AE18)</f>
+        <v>502.35450000000003</v>
+      </c>
+      <c r="V22" s="15">
+        <f>AVERAGE('tLS30'!B18:AE18)</f>
+        <v>0.11987543333333332</v>
+      </c>
+      <c r="W22" s="7">
         <f>MIN('fLS30'!B18:AE18)</f>
         <v>333.78699999999998</v>
       </c>
-      <c r="Q22" s="20">
-        <f>AVERAGE('fLS30'!B18:AE18)</f>
-        <v>514.42966666666678</v>
-      </c>
-      <c r="R22" s="20">
-        <f>_xlfn.STDEV.P('fLS30'!B18:AE18)</f>
-        <v>105.53784684978507</v>
-      </c>
-      <c r="S22" s="20">
-        <f>MAX('fLS30'!B18:AE18) - MIN('fLS30'!B18:AE18)</f>
-        <v>402.17500000000001</v>
-      </c>
-      <c r="T22" s="20">
-        <f>MEDIAN('fLS30'!B18:AE18)</f>
-        <v>502.35450000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -14246,10 +14793,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -15971,10 +16518,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -17696,10 +18243,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -19421,10 +19968,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -21146,7 +21693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22923,7 +23470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24700,7 +25247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
